--- a/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9086607725164104</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.022277282705679</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.925162551499933</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.997085687403832</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.047822600465578</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9339645898446778</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.033434744335407</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9377732929429863</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.008585773102599</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9352909266894929</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9287609281127212</v>
+      </c>
+      <c r="D3">
+        <v>1.030757647260892</v>
+      </c>
+      <c r="E3">
+        <v>0.9424765926778955</v>
+      </c>
+      <c r="F3">
+        <v>1.009312605771318</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.05163648137572</v>
+      </c>
+      <c r="J3">
+        <v>0.9514018533115536</v>
+      </c>
+      <c r="K3">
+        <v>1.041011541026282</v>
+      </c>
+      <c r="L3">
+        <v>0.9539025455627087</v>
+      </c>
+      <c r="M3">
+        <v>1.019827700766901</v>
+      </c>
+      <c r="N3">
+        <v>0.9527529530705739</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9407658632540853</v>
+      </c>
+      <c r="D4">
+        <v>1.035886527171832</v>
+      </c>
+      <c r="E4">
+        <v>0.9528307129668231</v>
+      </c>
+      <c r="F4">
+        <v>1.016683865378161</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.05391658570254</v>
+      </c>
+      <c r="J4">
+        <v>0.9618165419762983</v>
+      </c>
+      <c r="K4">
+        <v>1.045570298722921</v>
+      </c>
+      <c r="L4">
+        <v>0.9635338639864337</v>
+      </c>
+      <c r="M4">
+        <v>1.02658501609934</v>
+      </c>
+      <c r="N4">
+        <v>0.9631824317878039</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.945608557476467</v>
+      </c>
+      <c r="D5">
+        <v>1.037967626447876</v>
+      </c>
+      <c r="E5">
+        <v>0.9570099388034351</v>
+      </c>
+      <c r="F5">
+        <v>1.01967045860253</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.054835547071824</v>
+      </c>
+      <c r="J5">
+        <v>0.9660172285690714</v>
+      </c>
+      <c r="K5">
+        <v>1.04741476389104</v>
+      </c>
+      <c r="L5">
+        <v>0.9674180401421633</v>
+      </c>
+      <c r="M5">
+        <v>1.029318338822112</v>
+      </c>
+      <c r="N5">
+        <v>0.9673890838373641</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9464105590398104</v>
+      </c>
+      <c r="D6">
+        <v>1.038312913888242</v>
+      </c>
+      <c r="E6">
+        <v>0.9577021902740573</v>
+      </c>
+      <c r="F6">
+        <v>1.020165756084678</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.054987654546875</v>
+      </c>
+      <c r="J6">
+        <v>0.9667128627604751</v>
+      </c>
+      <c r="K6">
+        <v>1.047720486913919</v>
+      </c>
+      <c r="L6">
+        <v>0.9680612274908955</v>
+      </c>
+      <c r="M6">
+        <v>1.029771375051897</v>
+      </c>
+      <c r="N6">
+        <v>0.9680857059091103</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9408313336748982</v>
+      </c>
+      <c r="D7">
+        <v>1.035914617669816</v>
+      </c>
+      <c r="E7">
+        <v>0.9528872046859502</v>
+      </c>
+      <c r="F7">
+        <v>1.016724194106209</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.05392901437993</v>
+      </c>
+      <c r="J7">
+        <v>0.9618733355265839</v>
+      </c>
+      <c r="K7">
+        <v>1.045595215850892</v>
+      </c>
+      <c r="L7">
+        <v>0.9635863804979765</v>
+      </c>
+      <c r="M7">
+        <v>1.026621942525086</v>
+      </c>
+      <c r="N7">
+        <v>0.9632393059914451</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9156856970862517</v>
+      </c>
+      <c r="D8">
+        <v>1.025224888680951</v>
+      </c>
+      <c r="E8">
+        <v>0.9312103332891666</v>
+      </c>
+      <c r="F8">
+        <v>1.001341513235348</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.049154078380918</v>
+      </c>
+      <c r="J8">
+        <v>0.9400583951829854</v>
+      </c>
+      <c r="K8">
+        <v>1.036073678647908</v>
+      </c>
+      <c r="L8">
+        <v>0.9434104292641511</v>
+      </c>
+      <c r="M8">
+        <v>1.012503343484355</v>
+      </c>
+      <c r="N8">
+        <v>0.94139338593035</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.8613217308095235</v>
+      </c>
+      <c r="D9">
+        <v>1.002938478344784</v>
+      </c>
+      <c r="E9">
+        <v>0.8845236002815694</v>
+      </c>
+      <c r="F9">
+        <v>0.9689705645496344</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.03895099123559</v>
+      </c>
+      <c r="J9">
+        <v>0.8929408312726845</v>
+      </c>
+      <c r="K9">
+        <v>1.015984060015674</v>
+      </c>
+      <c r="L9">
+        <v>0.8998164326573942</v>
+      </c>
+      <c r="M9">
+        <v>0.9825879680712863</v>
+      </c>
+      <c r="N9">
+        <v>0.8942089096748367</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.8122301009547518</v>
+      </c>
+      <c r="D10">
+        <v>0.984021829189541</v>
+      </c>
+      <c r="E10">
+        <v>0.8426525872536331</v>
+      </c>
+      <c r="F10">
+        <v>0.9410495132995002</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.030076843423347</v>
+      </c>
+      <c r="J10">
+        <v>0.8505471255356917</v>
+      </c>
+      <c r="K10">
+        <v>0.9986856942323602</v>
+      </c>
+      <c r="L10">
+        <v>0.8605924770888874</v>
+      </c>
+      <c r="M10">
+        <v>0.9565714671622997</v>
+      </c>
+      <c r="N10">
+        <v>0.8517550000130711</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.7843956135230847</v>
+      </c>
+      <c r="D11">
+        <v>0.9738957812026594</v>
+      </c>
+      <c r="E11">
+        <v>0.8190718912631754</v>
+      </c>
+      <c r="F11">
+        <v>0.9258790954464329</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.025256064172658</v>
+      </c>
+      <c r="J11">
+        <v>0.8266166558634535</v>
+      </c>
+      <c r="K11">
+        <v>0.9893273666637511</v>
+      </c>
+      <c r="L11">
+        <v>0.8384596276848758</v>
+      </c>
+      <c r="M11">
+        <v>0.9423486470258343</v>
+      </c>
+      <c r="N11">
+        <v>0.8277905463290354</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.7722278448119928</v>
+      </c>
+      <c r="D12">
+        <v>0.9696179790258335</v>
+      </c>
+      <c r="E12">
+        <v>0.8088068087745438</v>
+      </c>
+      <c r="F12">
+        <v>0.9194135053307517</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.023205243691398</v>
+      </c>
+      <c r="J12">
+        <v>0.8161861566741134</v>
+      </c>
+      <c r="K12">
+        <v>0.985351353901219</v>
+      </c>
+      <c r="L12">
+        <v>0.8288160451876838</v>
+      </c>
+      <c r="M12">
+        <v>0.9362665746512625</v>
+      </c>
+      <c r="N12">
+        <v>0.8173452346344513</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.7749484488916198</v>
+      </c>
+      <c r="D13">
+        <v>0.9705663420226768</v>
+      </c>
+      <c r="E13">
+        <v>0.8110995440333579</v>
+      </c>
+      <c r="F13">
+        <v>0.9208500367337534</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.023660629445515</v>
+      </c>
+      <c r="J13">
+        <v>0.8185165576668647</v>
+      </c>
+      <c r="K13">
+        <v>0.9862340232556275</v>
+      </c>
+      <c r="L13">
+        <v>0.830970416156562</v>
+      </c>
+      <c r="M13">
+        <v>0.9376189976742529</v>
+      </c>
+      <c r="N13">
+        <v>0.819678945063913</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.7834363638759717</v>
+      </c>
+      <c r="D14">
+        <v>0.9735551687883485</v>
+      </c>
+      <c r="E14">
+        <v>0.8182616339685963</v>
+      </c>
+      <c r="F14">
+        <v>0.925365597640741</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.025093081353245</v>
+      </c>
+      <c r="J14">
+        <v>0.825793640178304</v>
+      </c>
+      <c r="K14">
+        <v>0.9890112922074724</v>
+      </c>
+      <c r="L14">
+        <v>0.8376986167635462</v>
+      </c>
+      <c r="M14">
+        <v>0.9418660690448034</v>
+      </c>
+      <c r="N14">
+        <v>0.8269663618672117</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.7883794210543627</v>
+      </c>
+      <c r="D15">
+        <v>0.9753164483187822</v>
+      </c>
+      <c r="E15">
+        <v>0.8224387138718711</v>
+      </c>
+      <c r="F15">
+        <v>0.9280184863864478</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.025935274722346</v>
+      </c>
+      <c r="J15">
+        <v>0.8300359546883167</v>
+      </c>
+      <c r="K15">
+        <v>0.9906447591625352</v>
+      </c>
+      <c r="L15">
+        <v>0.8416214681680589</v>
+      </c>
+      <c r="M15">
+        <v>0.9443583788761691</v>
+      </c>
+      <c r="N15">
+        <v>0.8312147009504289</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.8138879204055972</v>
+      </c>
+      <c r="D16">
+        <v>0.9846393126865119</v>
+      </c>
+      <c r="E16">
+        <v>0.8440610480383771</v>
+      </c>
+      <c r="F16">
+        <v>0.9419690078139847</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.030369267771707</v>
+      </c>
+      <c r="J16">
+        <v>0.8519751919333967</v>
+      </c>
+      <c r="K16">
+        <v>0.9992540485752687</v>
+      </c>
+      <c r="L16">
+        <v>0.8619135371412963</v>
+      </c>
+      <c r="M16">
+        <v>0.9574314751826212</v>
+      </c>
+      <c r="N16">
+        <v>0.8531850944288625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.8277811374850714</v>
+      </c>
+      <c r="D17">
+        <v>0.9898748992113652</v>
+      </c>
+      <c r="E17">
+        <v>0.8558807383468073</v>
+      </c>
+      <c r="F17">
+        <v>0.949741762866824</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.032841438715313</v>
+      </c>
+      <c r="J17">
+        <v>0.8639538340435317</v>
+      </c>
+      <c r="K17">
+        <v>1.004062818132575</v>
+      </c>
+      <c r="L17">
+        <v>0.87299547268044</v>
+      </c>
+      <c r="M17">
+        <v>0.9646923797469228</v>
+      </c>
+      <c r="N17">
+        <v>0.865180747584763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.8353244031457679</v>
+      </c>
+      <c r="D18">
+        <v>0.9927619376374199</v>
+      </c>
+      <c r="E18">
+        <v>0.8623097682291546</v>
+      </c>
+      <c r="F18">
+        <v>0.9540107050014234</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.034199012159764</v>
+      </c>
+      <c r="J18">
+        <v>0.8704651642642602</v>
+      </c>
+      <c r="K18">
+        <v>1.006706790147359</v>
+      </c>
+      <c r="L18">
+        <v>0.8790198986215256</v>
+      </c>
+      <c r="M18">
+        <v>0.9686734784497865</v>
+      </c>
+      <c r="N18">
+        <v>0.8717013246412653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.8378143318019334</v>
+      </c>
+      <c r="D19">
+        <v>0.9937215862384912</v>
+      </c>
+      <c r="E19">
+        <v>0.8644336059036293</v>
+      </c>
+      <c r="F19">
+        <v>0.9554271321537469</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.03464936334317</v>
+      </c>
+      <c r="J19">
+        <v>0.8726155484274989</v>
+      </c>
+      <c r="K19">
+        <v>1.007584449884393</v>
+      </c>
+      <c r="L19">
+        <v>0.8810095436856089</v>
+      </c>
+      <c r="M19">
+        <v>0.9699933622440321</v>
+      </c>
+      <c r="N19">
+        <v>0.8738547625966681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.8263518322527533</v>
+      </c>
+      <c r="D20">
+        <v>0.9893313332059839</v>
+      </c>
+      <c r="E20">
+        <v>0.8546634546004511</v>
+      </c>
+      <c r="F20">
+        <v>0.9489366865718282</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.032585384547074</v>
+      </c>
+      <c r="J20">
+        <v>0.8627206384063492</v>
+      </c>
+      <c r="K20">
+        <v>1.003564408712498</v>
+      </c>
+      <c r="L20">
+        <v>0.8718545295363165</v>
+      </c>
+      <c r="M20">
+        <v>0.9639410577397143</v>
+      </c>
+      <c r="N20">
+        <v>0.8639458006683263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.781000193932415</v>
+      </c>
+      <c r="D21">
+        <v>0.9726927022026771</v>
+      </c>
+      <c r="E21">
+        <v>0.8162046156235588</v>
+      </c>
+      <c r="F21">
+        <v>0.9240643697375327</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.024680151974655</v>
+      </c>
+      <c r="J21">
+        <v>0.8237040043416821</v>
+      </c>
+      <c r="K21">
+        <v>0.9882105694841522</v>
+      </c>
+      <c r="L21">
+        <v>0.8357664747856213</v>
+      </c>
+      <c r="M21">
+        <v>0.9406428416316053</v>
+      </c>
+      <c r="N21">
+        <v>0.8248737585080174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.7398386137395097</v>
+      </c>
+      <c r="D22">
+        <v>0.9586996112996869</v>
+      </c>
+      <c r="E22">
+        <v>0.7816292532954698</v>
+      </c>
+      <c r="F22">
+        <v>0.9027326162611955</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.017931945115919</v>
+      </c>
+      <c r="J22">
+        <v>0.7885285577130212</v>
+      </c>
+      <c r="K22">
+        <v>0.9751361708887757</v>
+      </c>
+      <c r="L22">
+        <v>0.8032592269705263</v>
+      </c>
+      <c r="M22">
+        <v>0.9205130390948328</v>
+      </c>
+      <c r="N22">
+        <v>0.7896483587104632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.7636810712697051</v>
+      </c>
+      <c r="D23">
+        <v>0.9666696251599134</v>
+      </c>
+      <c r="E23">
+        <v>0.8016137141015012</v>
+      </c>
+      <c r="F23">
+        <v>0.9149355111537052</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.021786825779822</v>
+      </c>
+      <c r="J23">
+        <v>0.8088721336278932</v>
+      </c>
+      <c r="K23">
+        <v>0.9826026945406605</v>
+      </c>
+      <c r="L23">
+        <v>0.8220553848384839</v>
+      </c>
+      <c r="M23">
+        <v>0.9320466034521387</v>
+      </c>
+      <c r="N23">
+        <v>0.8100208248365752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.8269993613634437</v>
+      </c>
+      <c r="D24">
+        <v>0.9895774507127072</v>
+      </c>
+      <c r="E24">
+        <v>0.8552148940602379</v>
+      </c>
+      <c r="F24">
+        <v>0.949301264603348</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.032701339215841</v>
+      </c>
+      <c r="J24">
+        <v>0.8632792990751658</v>
+      </c>
+      <c r="K24">
+        <v>1.003790104063756</v>
+      </c>
+      <c r="L24">
+        <v>0.8723713965245841</v>
+      </c>
+      <c r="M24">
+        <v>0.964281314135898</v>
+      </c>
+      <c r="N24">
+        <v>0.8645052546993722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.8769991330528522</v>
+      </c>
+      <c r="D25">
+        <v>1.009234623641936</v>
+      </c>
+      <c r="E25">
+        <v>0.8979576018690318</v>
+      </c>
+      <c r="F25">
+        <v>0.9781647779458797</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.041863517727363</v>
+      </c>
+      <c r="J25">
+        <v>0.9065159442699596</v>
+      </c>
+      <c r="K25">
+        <v>1.021691255640391</v>
+      </c>
+      <c r="L25">
+        <v>0.9123775702568464</v>
+      </c>
+      <c r="M25">
+        <v>0.9911117868462791</v>
+      </c>
+      <c r="N25">
+        <v>0.907803300889655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9086607725164104</v>
+        <v>0.9796409633774172</v>
       </c>
       <c r="D2">
-        <v>1.022277282705679</v>
+        <v>1.021089120459336</v>
       </c>
       <c r="E2">
-        <v>0.925162551499933</v>
+        <v>0.9882188828877133</v>
       </c>
       <c r="F2">
-        <v>0.997085687403832</v>
+        <v>0.95538175645334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047822600465578</v>
+        <v>1.036868686306694</v>
       </c>
       <c r="J2">
-        <v>0.9339645898446778</v>
+        <v>1.002448142172421</v>
       </c>
       <c r="K2">
-        <v>1.033434744335407</v>
+        <v>1.032262265330572</v>
       </c>
       <c r="L2">
-        <v>0.9377732929429863</v>
+        <v>0.9998448246061808</v>
       </c>
       <c r="M2">
-        <v>1.008585773102599</v>
+        <v>0.9674997968741796</v>
       </c>
       <c r="N2">
-        <v>0.9352909266894929</v>
+        <v>1.003871733516714</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9287609281127212</v>
+        <v>0.9884326903008885</v>
       </c>
       <c r="D3">
-        <v>1.030757647260892</v>
+        <v>1.024467824853031</v>
       </c>
       <c r="E3">
-        <v>0.9424765926778955</v>
+        <v>0.9955767334208514</v>
       </c>
       <c r="F3">
-        <v>1.009312605771318</v>
+        <v>0.9671793969769342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05163648137572</v>
+        <v>1.039169288989237</v>
       </c>
       <c r="J3">
-        <v>0.9514018533115536</v>
+        <v>1.009243737063255</v>
       </c>
       <c r="K3">
-        <v>1.041011541026282</v>
+        <v>1.034796921952005</v>
       </c>
       <c r="L3">
-        <v>0.9539025455627087</v>
+        <v>1.006266525388613</v>
       </c>
       <c r="M3">
-        <v>1.019827700766901</v>
+        <v>0.9782501923252501</v>
       </c>
       <c r="N3">
-        <v>0.9527529530705739</v>
+        <v>1.010676978931759</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9407658632540853</v>
+        <v>0.9939037431338403</v>
       </c>
       <c r="D4">
-        <v>1.035886527171832</v>
+        <v>1.026586412366112</v>
       </c>
       <c r="E4">
-        <v>0.9528307129668231</v>
+        <v>1.000162087114057</v>
       </c>
       <c r="F4">
-        <v>1.016683865378161</v>
+        <v>0.9745062349277706</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05391658570254</v>
+        <v>1.040590274705758</v>
       </c>
       <c r="J4">
-        <v>0.9618165419762983</v>
+        <v>1.013464687871134</v>
       </c>
       <c r="K4">
-        <v>1.045570298722921</v>
+        <v>1.036374212035612</v>
       </c>
       <c r="L4">
-        <v>0.9635338639864337</v>
+        <v>1.010258556280735</v>
       </c>
       <c r="M4">
-        <v>1.02658501609934</v>
+        <v>0.9849224074024091</v>
       </c>
       <c r="N4">
-        <v>0.9631824317878039</v>
+        <v>1.014903923973935</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.945608557476467</v>
+        <v>0.996155412937148</v>
       </c>
       <c r="D5">
-        <v>1.037967626447876</v>
+        <v>1.027461843389985</v>
       </c>
       <c r="E5">
-        <v>0.9570099388034351</v>
+        <v>1.002050693839064</v>
       </c>
       <c r="F5">
-        <v>1.01967045860253</v>
+        <v>0.9775188486242056</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054835547071824</v>
+        <v>1.041172433387501</v>
       </c>
       <c r="J5">
-        <v>0.9660172285690714</v>
+        <v>1.015199934386116</v>
       </c>
       <c r="K5">
-        <v>1.04741476389104</v>
+        <v>1.03702316849952</v>
       </c>
       <c r="L5">
-        <v>0.9674180401421633</v>
+        <v>1.011900451039131</v>
       </c>
       <c r="M5">
-        <v>1.029318338822112</v>
+        <v>0.9876647641630485</v>
       </c>
       <c r="N5">
-        <v>0.9673890838373641</v>
+        <v>1.016641634738004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9464105590398104</v>
+        <v>0.9965307439472056</v>
       </c>
       <c r="D6">
-        <v>1.038312913888242</v>
+        <v>1.027607965745688</v>
       </c>
       <c r="E6">
-        <v>0.9577021902740573</v>
+        <v>1.002365588020481</v>
       </c>
       <c r="F6">
-        <v>1.020165756084678</v>
+        <v>0.9780208745365435</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054987654546875</v>
+        <v>1.041269313890652</v>
       </c>
       <c r="J6">
-        <v>0.9667128627604751</v>
+        <v>1.015489068271786</v>
       </c>
       <c r="K6">
-        <v>1.047720486913919</v>
+        <v>1.037131326417595</v>
       </c>
       <c r="L6">
-        <v>0.9680612274908955</v>
+        <v>1.012174073856305</v>
       </c>
       <c r="M6">
-        <v>1.029771375051897</v>
+        <v>0.9881216878305998</v>
       </c>
       <c r="N6">
-        <v>0.9680857059091103</v>
+        <v>1.016931179226956</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9408313336748982</v>
+        <v>0.9939340154167718</v>
       </c>
       <c r="D7">
-        <v>1.035914617669816</v>
+        <v>1.026598168526462</v>
       </c>
       <c r="E7">
-        <v>0.9528872046859502</v>
+        <v>1.000187472629667</v>
       </c>
       <c r="F7">
-        <v>1.016724194106209</v>
+        <v>0.9745467479319175</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05392901437993</v>
+        <v>1.040598112153529</v>
       </c>
       <c r="J7">
-        <v>0.9618733355265839</v>
+        <v>1.013488024863437</v>
       </c>
       <c r="K7">
-        <v>1.045595215850892</v>
+        <v>1.036382937857313</v>
       </c>
       <c r="L7">
-        <v>0.9635863804979765</v>
+        <v>1.010280634843709</v>
       </c>
       <c r="M7">
-        <v>1.026621942525086</v>
+        <v>0.9849592904718558</v>
       </c>
       <c r="N7">
-        <v>0.9632393059914451</v>
+        <v>1.014927294107444</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9156856970862517</v>
+        <v>0.98265968307289</v>
       </c>
       <c r="D8">
-        <v>1.025224888680951</v>
+        <v>1.02224560210536</v>
       </c>
       <c r="E8">
-        <v>0.9312103332891666</v>
+        <v>0.9907437849068498</v>
       </c>
       <c r="F8">
-        <v>1.001341513235348</v>
+        <v>0.9594362032706462</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049154078380918</v>
+        <v>1.037660818705045</v>
       </c>
       <c r="J8">
-        <v>0.9400583951829854</v>
+        <v>1.00478313405542</v>
       </c>
       <c r="K8">
-        <v>1.036073678647908</v>
+        <v>1.033132443318565</v>
       </c>
       <c r="L8">
-        <v>0.9434104292641511</v>
+        <v>1.002050614700078</v>
       </c>
       <c r="M8">
-        <v>1.012503343484355</v>
+        <v>0.971195192507787</v>
       </c>
       <c r="N8">
-        <v>0.94139338593035</v>
+        <v>1.006210041356015</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8613217308095235</v>
+        <v>0.9609269580042507</v>
       </c>
       <c r="D9">
-        <v>1.002938478344784</v>
+        <v>1.014006899128426</v>
       </c>
       <c r="E9">
-        <v>0.8845236002815694</v>
+        <v>0.9726014582287495</v>
       </c>
       <c r="F9">
-        <v>0.9689705645496344</v>
+        <v>0.9301443840040716</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03895099123559</v>
+        <v>1.031915789983155</v>
       </c>
       <c r="J9">
-        <v>0.8929408312726845</v>
+        <v>0.9879391643236418</v>
       </c>
       <c r="K9">
-        <v>1.015984060015674</v>
+        <v>1.026876739473931</v>
       </c>
       <c r="L9">
-        <v>0.8998164326573942</v>
+        <v>0.9861552701389307</v>
       </c>
       <c r="M9">
-        <v>0.9825879680712863</v>
+        <v>0.9444825284315035</v>
       </c>
       <c r="N9">
-        <v>0.8942089096748367</v>
+        <v>0.9893421512551875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8122301009547518</v>
+        <v>0.9448498229659684</v>
       </c>
       <c r="D10">
-        <v>0.984021829189541</v>
+        <v>1.008047017303247</v>
       </c>
       <c r="E10">
-        <v>0.8426525872536331</v>
+        <v>0.9592343809151838</v>
       </c>
       <c r="F10">
-        <v>0.9410495132995002</v>
+        <v>0.9082869822191981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030076843423347</v>
+        <v>1.027617263365358</v>
       </c>
       <c r="J10">
-        <v>0.8505471255356917</v>
+        <v>0.9754363220047061</v>
       </c>
       <c r="K10">
-        <v>0.9986856942323602</v>
+        <v>1.022272484634517</v>
       </c>
       <c r="L10">
-        <v>0.8605924770888874</v>
+        <v>0.9743808597174423</v>
       </c>
       <c r="M10">
-        <v>0.9565714671622997</v>
+        <v>0.9245362271507762</v>
       </c>
       <c r="N10">
-        <v>0.8517550000130711</v>
+        <v>0.9768215534660628</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7843956135230847</v>
+        <v>0.9374143072557797</v>
       </c>
       <c r="D11">
-        <v>0.9738957812026594</v>
+        <v>1.005331039839323</v>
       </c>
       <c r="E11">
-        <v>0.8190718912631754</v>
+        <v>0.9530682996384178</v>
       </c>
       <c r="F11">
-        <v>0.9258790954464329</v>
+        <v>0.8981102831168243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025256064172658</v>
+        <v>1.025619937135307</v>
       </c>
       <c r="J11">
-        <v>0.8266166558634535</v>
+        <v>0.969644190658018</v>
       </c>
       <c r="K11">
-        <v>0.9893273666637511</v>
+        <v>1.020153115993769</v>
       </c>
       <c r="L11">
-        <v>0.8384596276848758</v>
+        <v>0.9689330845140678</v>
       </c>
       <c r="M11">
-        <v>0.9423486470258343</v>
+        <v>0.9152485602224656</v>
       </c>
       <c r="N11">
-        <v>0.8277905463290354</v>
+        <v>0.9710211966284954</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7722278448119928</v>
+        <v>0.9345706433821691</v>
       </c>
       <c r="D12">
-        <v>0.9696179790258335</v>
+        <v>1.00429924139185</v>
       </c>
       <c r="E12">
-        <v>0.8088068087745438</v>
+        <v>0.9507128620649039</v>
       </c>
       <c r="F12">
-        <v>0.9194135053307517</v>
+        <v>0.894205489208145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023205243691398</v>
+        <v>1.024854900376343</v>
       </c>
       <c r="J12">
-        <v>0.8161861566741134</v>
+        <v>0.9674275959841965</v>
       </c>
       <c r="K12">
-        <v>0.985351353901219</v>
+        <v>1.019344535647417</v>
       </c>
       <c r="L12">
-        <v>0.8288160451876838</v>
+        <v>0.9668494279558218</v>
       </c>
       <c r="M12">
-        <v>0.9362665746512625</v>
+        <v>0.9116850478378119</v>
       </c>
       <c r="N12">
-        <v>0.8173452346344513</v>
+        <v>0.9688014541359904</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7749484488916198</v>
+        <v>0.9351845158521175</v>
       </c>
       <c r="D13">
-        <v>0.9705663420226768</v>
+        <v>1.004521653490371</v>
       </c>
       <c r="E13">
-        <v>0.8110995440333579</v>
+        <v>0.951221210039466</v>
       </c>
       <c r="F13">
-        <v>0.9208500367337534</v>
+        <v>0.8950490563044281</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023660629445515</v>
+        <v>1.025020100638092</v>
       </c>
       <c r="J13">
-        <v>0.8185165576668647</v>
+        <v>0.967906164916875</v>
       </c>
       <c r="K13">
-        <v>0.9862340232556275</v>
+        <v>1.019518990812124</v>
       </c>
       <c r="L13">
-        <v>0.830970416156562</v>
+        <v>0.9672992408994887</v>
       </c>
       <c r="M13">
-        <v>0.9376189976742529</v>
+        <v>0.9124548742221261</v>
       </c>
       <c r="N13">
-        <v>0.819678945063913</v>
+        <v>0.969280702691446</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7834363638759717</v>
+        <v>0.9371809871607012</v>
       </c>
       <c r="D14">
-        <v>0.9735551687883485</v>
+        <v>1.005246236818875</v>
       </c>
       <c r="E14">
-        <v>0.8182616339685963</v>
+        <v>0.9528749806616498</v>
       </c>
       <c r="F14">
-        <v>0.925365597640741</v>
+        <v>0.8977901736831899</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025093081353245</v>
+        <v>1.025557188839687</v>
       </c>
       <c r="J14">
-        <v>0.825793640178304</v>
+        <v>0.9694623498740415</v>
       </c>
       <c r="K14">
-        <v>0.9890112922074724</v>
+        <v>1.020086730320617</v>
       </c>
       <c r="L14">
-        <v>0.8376986167635462</v>
+        <v>0.9687621253207226</v>
       </c>
       <c r="M14">
-        <v>0.9418660690448034</v>
+        <v>0.9149564234961192</v>
       </c>
       <c r="N14">
-        <v>0.8269663618672117</v>
+        <v>0.9708390976097486</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7883794210543627</v>
+        <v>0.9383998853157062</v>
       </c>
       <c r="D15">
-        <v>0.9753164483187822</v>
+        <v>1.005689545008642</v>
       </c>
       <c r="E15">
-        <v>0.8224387138718711</v>
+        <v>0.9538850200675453</v>
       </c>
       <c r="F15">
-        <v>0.9280184863864478</v>
+        <v>0.8994619377752238</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025935274722346</v>
+        <v>1.025884949042304</v>
       </c>
       <c r="J15">
-        <v>0.8300359546883167</v>
+        <v>0.9704122547715832</v>
       </c>
       <c r="K15">
-        <v>0.9906447591625352</v>
+        <v>1.020433620802882</v>
       </c>
       <c r="L15">
-        <v>0.8416214681680589</v>
+        <v>0.9696552342111213</v>
       </c>
       <c r="M15">
-        <v>0.9443583788761691</v>
+        <v>0.9164821090633138</v>
       </c>
       <c r="N15">
-        <v>0.8312147009504289</v>
+        <v>0.9717903514812002</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8138879204055972</v>
+        <v>0.9453324570271815</v>
       </c>
       <c r="D16">
-        <v>0.9846393126865119</v>
+        <v>1.008224204688988</v>
       </c>
       <c r="E16">
-        <v>0.8440610480383771</v>
+        <v>0.9596349720997023</v>
       </c>
       <c r="F16">
-        <v>0.9419690078139847</v>
+        <v>0.9089459522079495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030369267771707</v>
+        <v>1.027746735749827</v>
       </c>
       <c r="J16">
-        <v>0.8519751919333967</v>
+        <v>0.9758120886635548</v>
       </c>
       <c r="K16">
-        <v>0.9992540485752687</v>
+        <v>1.022410293206101</v>
       </c>
       <c r="L16">
-        <v>0.8619135371412963</v>
+        <v>0.9747344368864704</v>
       </c>
       <c r="M16">
-        <v>0.9574314751826212</v>
+        <v>0.9251376354801257</v>
       </c>
       <c r="N16">
-        <v>0.8531850944288625</v>
+        <v>0.9771978537566683</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8277811374850714</v>
+        <v>0.9495474078641104</v>
       </c>
       <c r="D17">
-        <v>0.9898748992113652</v>
+        <v>1.009776212171888</v>
       </c>
       <c r="E17">
-        <v>0.8558807383468073</v>
+        <v>0.9631352476273305</v>
       </c>
       <c r="F17">
-        <v>0.949741762866824</v>
+        <v>0.9146930811414772</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032841438715313</v>
+        <v>1.028876433685835</v>
       </c>
       <c r="J17">
-        <v>0.8639538340435317</v>
+        <v>0.9790926663340528</v>
       </c>
       <c r="K17">
-        <v>1.004062818132575</v>
+        <v>1.023614973103574</v>
       </c>
       <c r="L17">
-        <v>0.87299547268044</v>
+        <v>0.977822072290498</v>
       </c>
       <c r="M17">
-        <v>0.9646923797469228</v>
+        <v>0.9303826871976226</v>
       </c>
       <c r="N17">
-        <v>0.865180747584763</v>
+        <v>0.9804830902237457</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8353244031457679</v>
+        <v>0.951961004341046</v>
       </c>
       <c r="D18">
-        <v>0.9927619376374199</v>
+        <v>1.010668620647122</v>
       </c>
       <c r="E18">
-        <v>0.8623097682291546</v>
+        <v>0.9651410668156929</v>
       </c>
       <c r="F18">
-        <v>0.9540107050014234</v>
+        <v>0.917977946406703</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034199012159764</v>
+        <v>1.029522451959192</v>
       </c>
       <c r="J18">
-        <v>0.8704651642642602</v>
+        <v>0.9809703157257971</v>
       </c>
       <c r="K18">
-        <v>1.006706790147359</v>
+        <v>1.024305706250901</v>
       </c>
       <c r="L18">
-        <v>0.8790198986215256</v>
+        <v>0.9795899206954053</v>
       </c>
       <c r="M18">
-        <v>0.9686734784497865</v>
+        <v>0.9333804908613946</v>
       </c>
       <c r="N18">
-        <v>0.8717013246412653</v>
+        <v>0.9823634060929954</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8378143318019334</v>
+        <v>0.9527766447100025</v>
       </c>
       <c r="D19">
-        <v>0.9937215862384912</v>
+        <v>1.010970800267727</v>
       </c>
       <c r="E19">
-        <v>0.8644336059036293</v>
+        <v>0.9658191445841005</v>
       </c>
       <c r="F19">
-        <v>0.9554271321537469</v>
+        <v>0.9190870506859017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03464936334317</v>
+        <v>1.029740609624445</v>
       </c>
       <c r="J19">
-        <v>0.8726155484274989</v>
+        <v>0.9816046870617228</v>
       </c>
       <c r="K19">
-        <v>1.007584449884393</v>
+        <v>1.024539270368532</v>
       </c>
       <c r="L19">
-        <v>0.8810095436856089</v>
+        <v>0.9801872991250793</v>
       </c>
       <c r="M19">
-        <v>0.9699933622440321</v>
+        <v>0.9343926490346182</v>
       </c>
       <c r="N19">
-        <v>0.8738547625966681</v>
+        <v>0.9829986783089818</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8263518322527533</v>
+        <v>0.9490998981104385</v>
       </c>
       <c r="D20">
-        <v>0.9893313332059839</v>
+        <v>1.009611042985582</v>
       </c>
       <c r="E20">
-        <v>0.8546634546004511</v>
+        <v>0.9627634616177654</v>
       </c>
       <c r="F20">
-        <v>0.9489366865718282</v>
+        <v>0.9140835483268734</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032585384547074</v>
+        <v>1.028756581358602</v>
       </c>
       <c r="J20">
-        <v>0.8627206384063492</v>
+        <v>0.9787444543388507</v>
       </c>
       <c r="K20">
-        <v>1.003564408712498</v>
+        <v>1.023486973122886</v>
       </c>
       <c r="L20">
-        <v>0.8718545295363165</v>
+        <v>0.9774942734511448</v>
       </c>
       <c r="M20">
-        <v>0.9639410577397143</v>
+        <v>0.9298264118186794</v>
       </c>
       <c r="N20">
-        <v>0.8639458006683263</v>
+        <v>0.98013438372757</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.781000193932415</v>
+        <v>0.936595430645854</v>
       </c>
       <c r="D21">
-        <v>0.9726927022026771</v>
+        <v>1.005033523065669</v>
       </c>
       <c r="E21">
-        <v>0.8162046156235588</v>
+        <v>0.9523898588986709</v>
       </c>
       <c r="F21">
-        <v>0.9240643697375327</v>
+        <v>0.8969865896176865</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024680151974655</v>
+        <v>1.025399693322703</v>
       </c>
       <c r="J21">
-        <v>0.8237040043416821</v>
+        <v>0.9690059665529155</v>
       </c>
       <c r="K21">
-        <v>0.9882105694841522</v>
+        <v>1.019920157208604</v>
       </c>
       <c r="L21">
-        <v>0.8357664747856213</v>
+        <v>0.9683330715644928</v>
       </c>
       <c r="M21">
-        <v>0.9406428416316053</v>
+        <v>0.9142230641148509</v>
       </c>
       <c r="N21">
-        <v>0.8248737585080174</v>
+        <v>0.9703820661719584</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7398386137395097</v>
+        <v>0.9282530500776728</v>
       </c>
       <c r="D22">
-        <v>0.9586996112996869</v>
+        <v>1.002020825849667</v>
       </c>
       <c r="E22">
-        <v>0.7816292532954698</v>
+        <v>0.9454854248763245</v>
       </c>
       <c r="F22">
-        <v>0.9027326162611955</v>
+        <v>0.8855032300840329</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017931945115919</v>
+        <v>1.023153371404838</v>
       </c>
       <c r="J22">
-        <v>0.7885285577130212</v>
+        <v>0.9625004842174715</v>
       </c>
       <c r="K22">
-        <v>0.9751361708887757</v>
+        <v>1.017552355802624</v>
       </c>
       <c r="L22">
-        <v>0.8032592269705263</v>
+        <v>0.9622201170573976</v>
       </c>
       <c r="M22">
-        <v>0.9205130390948328</v>
+        <v>0.9037440456179739</v>
       </c>
       <c r="N22">
-        <v>0.7896483587104632</v>
+        <v>0.9638673453054085</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7636810712697051</v>
+        <v>0.9327252352604447</v>
       </c>
       <c r="D23">
-        <v>0.9666696251599134</v>
+        <v>1.003631717134592</v>
       </c>
       <c r="E23">
-        <v>0.8016137141015012</v>
+        <v>0.9491851090938483</v>
       </c>
       <c r="F23">
-        <v>0.9149355111537052</v>
+        <v>0.8916674656117666</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021786825779822</v>
+        <v>1.024358126701275</v>
       </c>
       <c r="J23">
-        <v>0.8088721336278932</v>
+        <v>0.9659887251443239</v>
       </c>
       <c r="K23">
-        <v>0.9826026945406605</v>
+        <v>1.018820418513451</v>
       </c>
       <c r="L23">
-        <v>0.8220553848384839</v>
+        <v>0.9654971954959148</v>
       </c>
       <c r="M23">
-        <v>0.9320466034521387</v>
+        <v>0.9093689354586687</v>
       </c>
       <c r="N23">
-        <v>0.8100208248365752</v>
+        <v>0.9673605399344845</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8269993613634437</v>
+        <v>0.9493022465251444</v>
       </c>
       <c r="D24">
-        <v>0.9895774507127072</v>
+        <v>1.009685715352592</v>
       </c>
       <c r="E24">
-        <v>0.8552148940602379</v>
+        <v>0.9629315658374725</v>
       </c>
       <c r="F24">
-        <v>0.949301264603348</v>
+        <v>0.9143591767685287</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032701339215841</v>
+        <v>1.028810777180579</v>
       </c>
       <c r="J24">
-        <v>0.8632792990751658</v>
+        <v>0.9789019065482888</v>
       </c>
       <c r="K24">
-        <v>1.003790104063756</v>
+        <v>1.023544847510227</v>
       </c>
       <c r="L24">
-        <v>0.8723713965245841</v>
+        <v>0.9776424934197624</v>
       </c>
       <c r="M24">
-        <v>0.964281314135898</v>
+        <v>0.9300779577521491</v>
       </c>
       <c r="N24">
-        <v>0.8645052546993722</v>
+        <v>0.9802920595372057</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8769991330528522</v>
+        <v>0.9667973445036712</v>
       </c>
       <c r="D25">
-        <v>1.009234623641936</v>
+        <v>1.016212093724269</v>
       </c>
       <c r="E25">
-        <v>0.8979576018690318</v>
+        <v>0.977493874021617</v>
       </c>
       <c r="F25">
-        <v>0.9781647779458797</v>
+        <v>0.9380820420422548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041863517727363</v>
+        <v>1.033476395775205</v>
       </c>
       <c r="J25">
-        <v>0.9065159442699596</v>
+        <v>0.9924962113126993</v>
       </c>
       <c r="K25">
-        <v>1.021691255640391</v>
+        <v>1.028563844783584</v>
       </c>
       <c r="L25">
-        <v>0.9123775702568464</v>
+        <v>0.9904519140576529</v>
       </c>
       <c r="M25">
-        <v>0.9911117868462791</v>
+        <v>0.9517241523293716</v>
       </c>
       <c r="N25">
-        <v>0.907803300889655</v>
+        <v>0.9939056697736699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9796409633774172</v>
+        <v>1.035673440647108</v>
       </c>
       <c r="D2">
-        <v>1.021089120459336</v>
+        <v>1.032822811053197</v>
       </c>
       <c r="E2">
-        <v>0.9882188828877133</v>
+        <v>1.034619009003198</v>
       </c>
       <c r="F2">
-        <v>0.95538175645334</v>
+        <v>1.034346543335745</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036868686306694</v>
+        <v>1.035267872505472</v>
       </c>
       <c r="J2">
-        <v>1.002448142172421</v>
+        <v>1.040785930075492</v>
       </c>
       <c r="K2">
-        <v>1.032262265330572</v>
+        <v>1.035626932582745</v>
       </c>
       <c r="L2">
-        <v>0.9998448246061808</v>
+        <v>1.03741796361989</v>
       </c>
       <c r="M2">
-        <v>0.9674997968741796</v>
+        <v>1.037146280468248</v>
       </c>
       <c r="N2">
-        <v>1.003871733516714</v>
+        <v>1.042263965476052</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9884326903008885</v>
+        <v>1.03730602150839</v>
       </c>
       <c r="D3">
-        <v>1.024467824853031</v>
+        <v>1.033456399407444</v>
       </c>
       <c r="E3">
-        <v>0.9955767334208514</v>
+        <v>1.036029250861922</v>
       </c>
       <c r="F3">
-        <v>0.9671793969769342</v>
+        <v>1.036617500872505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039169288989237</v>
+        <v>1.035614217647267</v>
       </c>
       <c r="J3">
-        <v>1.009243737063255</v>
+        <v>1.042058713845839</v>
       </c>
       <c r="K3">
-        <v>1.034796921952005</v>
+        <v>1.036069841880408</v>
       </c>
       <c r="L3">
-        <v>1.006266525388613</v>
+        <v>1.038635831029</v>
       </c>
       <c r="M3">
-        <v>0.9782501923252501</v>
+        <v>1.039222517231887</v>
       </c>
       <c r="N3">
-        <v>1.010676978931759</v>
+        <v>1.043538556745305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9939037431338403</v>
+        <v>1.038359123688883</v>
       </c>
       <c r="D4">
-        <v>1.026586412366112</v>
+        <v>1.033865498509385</v>
       </c>
       <c r="E4">
-        <v>1.000162087114057</v>
+        <v>1.0369390799284</v>
       </c>
       <c r="F4">
-        <v>0.9745062349277706</v>
+        <v>1.038083082856138</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040590274705758</v>
+        <v>1.03583606318397</v>
       </c>
       <c r="J4">
-        <v>1.013464687871134</v>
+        <v>1.042878708986815</v>
       </c>
       <c r="K4">
-        <v>1.036374212035612</v>
+        <v>1.036354873154433</v>
       </c>
       <c r="L4">
-        <v>1.010258556280735</v>
+        <v>1.039420672106835</v>
       </c>
       <c r="M4">
-        <v>0.9849224074024091</v>
+        <v>1.040561791040016</v>
       </c>
       <c r="N4">
-        <v>1.014903923973935</v>
+        <v>1.044359716373436</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.996155412937148</v>
+        <v>1.038801076634731</v>
       </c>
       <c r="D5">
-        <v>1.027461843389985</v>
+        <v>1.034037276700652</v>
       </c>
       <c r="E5">
-        <v>1.002050693839064</v>
+        <v>1.037320940114961</v>
       </c>
       <c r="F5">
-        <v>0.9775188486242056</v>
+        <v>1.038698311826356</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041172433387501</v>
+        <v>1.035928788763703</v>
       </c>
       <c r="J5">
-        <v>1.015199934386116</v>
+        <v>1.043222590330306</v>
       </c>
       <c r="K5">
-        <v>1.03702316849952</v>
+        <v>1.03647432941281</v>
       </c>
       <c r="L5">
-        <v>1.011900451039131</v>
+        <v>1.039749864726716</v>
       </c>
       <c r="M5">
-        <v>0.9876647641630485</v>
+        <v>1.041123843470272</v>
       </c>
       <c r="N5">
-        <v>1.016641634738004</v>
+        <v>1.044704086067878</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9965307439472056</v>
+        <v>1.038875237706621</v>
       </c>
       <c r="D6">
-        <v>1.027607965745688</v>
+        <v>1.034066106940558</v>
       </c>
       <c r="E6">
-        <v>1.002365588020481</v>
+        <v>1.037385019421646</v>
       </c>
       <c r="F6">
-        <v>0.9780208745365435</v>
+        <v>1.038801559381876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041269313890652</v>
+        <v>1.035944326331172</v>
       </c>
       <c r="J6">
-        <v>1.015489068271786</v>
+        <v>1.043280280358805</v>
       </c>
       <c r="K6">
-        <v>1.037131326417595</v>
+        <v>1.036494364973751</v>
       </c>
       <c r="L6">
-        <v>1.012174073856305</v>
+        <v>1.039805093703949</v>
       </c>
       <c r="M6">
-        <v>0.9881216878305998</v>
+        <v>1.041218157897136</v>
       </c>
       <c r="N6">
-        <v>1.016931179226956</v>
+        <v>1.044761858022835</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9939340154167718</v>
+        <v>1.038365032094759</v>
       </c>
       <c r="D7">
-        <v>1.026598168526462</v>
+        <v>1.033867794628209</v>
       </c>
       <c r="E7">
-        <v>1.000187472629667</v>
+        <v>1.036944184829022</v>
       </c>
       <c r="F7">
-        <v>0.9745467479319175</v>
+        <v>1.03809130708225</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040598112153529</v>
+        <v>1.035837304298004</v>
       </c>
       <c r="J7">
-        <v>1.013488024863437</v>
+        <v>1.042883307247575</v>
       </c>
       <c r="K7">
-        <v>1.036382937857313</v>
+        <v>1.03635647078831</v>
       </c>
       <c r="L7">
-        <v>1.010280634843709</v>
+        <v>1.03942507374375</v>
       </c>
       <c r="M7">
-        <v>0.9849592904718558</v>
+        <v>1.04056930502243</v>
       </c>
       <c r="N7">
-        <v>1.014927294107444</v>
+        <v>1.044364321164254</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.98265968307289</v>
+        <v>1.036225869019525</v>
       </c>
       <c r="D8">
-        <v>1.02224560210536</v>
+        <v>1.03303711781638</v>
       </c>
       <c r="E8">
-        <v>0.9907437849068498</v>
+        <v>1.035096171712946</v>
       </c>
       <c r="F8">
-        <v>0.9594362032706462</v>
+        <v>1.03511484368188</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037660818705045</v>
+        <v>1.035385392121637</v>
       </c>
       <c r="J8">
-        <v>1.00478313405542</v>
+        <v>1.041216822479269</v>
       </c>
       <c r="K8">
-        <v>1.033132443318565</v>
+        <v>1.035776940657547</v>
       </c>
       <c r="L8">
-        <v>1.002050614700078</v>
+        <v>1.037830217365077</v>
       </c>
       <c r="M8">
-        <v>0.971195192507787</v>
+        <v>1.037848837059198</v>
       </c>
       <c r="N8">
-        <v>1.006210041356015</v>
+        <v>1.042695469796428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9609269580042507</v>
+        <v>1.032430510189243</v>
       </c>
       <c r="D9">
-        <v>1.014006899128426</v>
+        <v>1.031566548796502</v>
       </c>
       <c r="E9">
-        <v>0.9726014582287495</v>
+        <v>1.031818558493934</v>
       </c>
       <c r="F9">
-        <v>0.9301443840040716</v>
+        <v>1.029839002309584</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031915789983155</v>
+        <v>1.034571576662682</v>
       </c>
       <c r="J9">
-        <v>0.9879391643236418</v>
+        <v>1.038252262617374</v>
       </c>
       <c r="K9">
-        <v>1.026876739473931</v>
+        <v>1.034743657214135</v>
       </c>
       <c r="L9">
-        <v>0.9861552701389307</v>
+        <v>1.03499483727929</v>
       </c>
       <c r="M9">
-        <v>0.9444825284315035</v>
+        <v>1.03302180991313</v>
       </c>
       <c r="N9">
-        <v>0.9893421512551875</v>
+        <v>1.03972669991949</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9448498229659684</v>
+        <v>1.02988187524849</v>
       </c>
       <c r="D10">
-        <v>1.008047017303247</v>
+        <v>1.030581433259586</v>
       </c>
       <c r="E10">
-        <v>0.9592343809151838</v>
+        <v>1.029618451384772</v>
       </c>
       <c r="F10">
-        <v>0.9082869822191981</v>
+        <v>1.02629926088867</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027617263365358</v>
+        <v>1.034017052358593</v>
       </c>
       <c r="J10">
-        <v>0.9754363220047061</v>
+        <v>1.036256254478592</v>
       </c>
       <c r="K10">
-        <v>1.022272484634517</v>
+        <v>1.034046504106044</v>
       </c>
       <c r="L10">
-        <v>0.9743808597174423</v>
+        <v>1.033087006506328</v>
       </c>
       <c r="M10">
-        <v>0.9245362271507762</v>
+        <v>1.029779880914249</v>
       </c>
       <c r="N10">
-        <v>0.9768215534660628</v>
+        <v>1.037727857220205</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9374143072557797</v>
+        <v>1.028773701601263</v>
       </c>
       <c r="D11">
-        <v>1.005331039839323</v>
+        <v>1.030153707707681</v>
       </c>
       <c r="E11">
-        <v>0.9530682996384178</v>
+        <v>1.028662037278791</v>
       </c>
       <c r="F11">
-        <v>0.8981102831168243</v>
+        <v>1.024760789213491</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025619937135307</v>
+        <v>1.033774045258514</v>
       </c>
       <c r="J11">
-        <v>0.969644190658018</v>
+        <v>1.035387122067489</v>
       </c>
       <c r="K11">
-        <v>1.020153115993769</v>
+        <v>1.033742620617297</v>
       </c>
       <c r="L11">
-        <v>0.9689330845140678</v>
+        <v>1.032256558765104</v>
       </c>
       <c r="M11">
-        <v>0.9152485602224656</v>
+        <v>1.02837006466518</v>
       </c>
       <c r="N11">
-        <v>0.9710211966284954</v>
+        <v>1.036857490541388</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9345706433821691</v>
+        <v>1.028361366396811</v>
       </c>
       <c r="D12">
-        <v>1.00429924139185</v>
+        <v>1.029994653272127</v>
       </c>
       <c r="E12">
-        <v>0.9507128620649039</v>
+        <v>1.028306203133305</v>
       </c>
       <c r="F12">
-        <v>0.894205489208145</v>
+        <v>1.024188436633395</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024854900376343</v>
+        <v>1.033683342330666</v>
       </c>
       <c r="J12">
-        <v>0.9674275959841965</v>
+        <v>1.035063543476395</v>
       </c>
       <c r="K12">
-        <v>1.019344535647417</v>
+        <v>1.033629438962836</v>
       </c>
       <c r="L12">
-        <v>0.9668494279558218</v>
+        <v>1.031947426286469</v>
       </c>
       <c r="M12">
-        <v>0.9116850478378119</v>
+        <v>1.027845458113516</v>
       </c>
       <c r="N12">
-        <v>0.9688014541359904</v>
+        <v>1.036533452431579</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9351845158521175</v>
+        <v>1.028449846148644</v>
       </c>
       <c r="D13">
-        <v>1.004521653490371</v>
+        <v>1.030028779101587</v>
       </c>
       <c r="E13">
-        <v>0.951221210039466</v>
+        <v>1.028382557233675</v>
       </c>
       <c r="F13">
-        <v>0.8950490563044281</v>
+        <v>1.024311249276397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025020100638092</v>
+        <v>1.033702818366167</v>
       </c>
       <c r="J13">
-        <v>0.967906164916875</v>
+        <v>1.035132986111415</v>
       </c>
       <c r="K13">
-        <v>1.019518990812124</v>
+        <v>1.033653730707964</v>
       </c>
       <c r="L13">
-        <v>0.9672992408994887</v>
+        <v>1.032013766680375</v>
       </c>
       <c r="M13">
-        <v>0.9124548742221261</v>
+        <v>1.027958030943792</v>
       </c>
       <c r="N13">
-        <v>0.969280702691446</v>
+        <v>1.036602993683106</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9371809871607012</v>
+        <v>1.028739632445009</v>
       </c>
       <c r="D14">
-        <v>1.005246236818875</v>
+        <v>1.030140563871035</v>
       </c>
       <c r="E14">
-        <v>0.9528749806616498</v>
+        <v>1.028632635826496</v>
       </c>
       <c r="F14">
-        <v>0.8977901736831899</v>
+        <v>1.024713496836946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025557188839687</v>
+        <v>1.033766556713</v>
       </c>
       <c r="J14">
-        <v>0.9694623498740415</v>
+        <v>1.03536039023215</v>
       </c>
       <c r="K14">
-        <v>1.020086730320617</v>
+        <v>1.033733271245513</v>
       </c>
       <c r="L14">
-        <v>0.9687621253207226</v>
+        <v>1.032231019473587</v>
       </c>
       <c r="M14">
-        <v>0.9149564234961192</v>
+        <v>1.028326719838228</v>
       </c>
       <c r="N14">
-        <v>0.9708390976097486</v>
+        <v>1.036830720743777</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9383998853157062</v>
+        <v>1.028918084657301</v>
       </c>
       <c r="D15">
-        <v>1.005689545008642</v>
+        <v>1.030209414455941</v>
       </c>
       <c r="E15">
-        <v>0.9538850200675453</v>
+        <v>1.02878664026307</v>
       </c>
       <c r="F15">
-        <v>0.8994619377752238</v>
+        <v>1.024961215141987</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025884949042304</v>
+        <v>1.033805769671111</v>
       </c>
       <c r="J15">
-        <v>0.9704122547715832</v>
+        <v>1.035500402337151</v>
       </c>
       <c r="K15">
-        <v>1.020433620802882</v>
+        <v>1.033782238166749</v>
       </c>
       <c r="L15">
-        <v>0.9696552342111213</v>
+        <v>1.032364787240052</v>
       </c>
       <c r="M15">
-        <v>0.9164821090633138</v>
+        <v>1.028553756012755</v>
       </c>
       <c r="N15">
-        <v>0.9717903514812002</v>
+        <v>1.036970931682026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9453324570271815</v>
+        <v>1.029955322562464</v>
       </c>
       <c r="D16">
-        <v>1.008224204688988</v>
+        <v>1.030609795196228</v>
       </c>
       <c r="E16">
-        <v>0.9596349720997023</v>
+        <v>1.029681845046516</v>
       </c>
       <c r="F16">
-        <v>0.9089459522079495</v>
+        <v>1.026401240415289</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027746735749827</v>
+        <v>1.034033118581953</v>
       </c>
       <c r="J16">
-        <v>0.9758120886635548</v>
+        <v>1.036313832454857</v>
       </c>
       <c r="K16">
-        <v>1.022410293206101</v>
+        <v>1.034066629166565</v>
       </c>
       <c r="L16">
-        <v>0.9747344368864704</v>
+        <v>1.033142027821889</v>
       </c>
       <c r="M16">
-        <v>0.9251376354801257</v>
+        <v>1.029873315922474</v>
       </c>
       <c r="N16">
-        <v>0.9771978537566683</v>
+        <v>1.037785516963801</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9495474078641104</v>
+        <v>1.030604709904113</v>
       </c>
       <c r="D17">
-        <v>1.009776212171888</v>
+        <v>1.030860629549275</v>
       </c>
       <c r="E17">
-        <v>0.9631352476273305</v>
+        <v>1.030242367651369</v>
       </c>
       <c r="F17">
-        <v>0.9146930811414772</v>
+        <v>1.027302970036378</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028876433685835</v>
+        <v>1.034174950532276</v>
       </c>
       <c r="J17">
-        <v>0.9790926663340528</v>
+        <v>1.036822766720583</v>
       </c>
       <c r="K17">
-        <v>1.023614973103574</v>
+        <v>1.034244479061495</v>
       </c>
       <c r="L17">
-        <v>0.977822072290498</v>
+        <v>1.033628396997738</v>
       </c>
       <c r="M17">
-        <v>0.9303826871976226</v>
+        <v>1.030699402522268</v>
       </c>
       <c r="N17">
-        <v>0.9804830902237457</v>
+        <v>1.038295173974561</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.951961004341046</v>
+        <v>1.030983044246052</v>
       </c>
       <c r="D18">
-        <v>1.010668620647122</v>
+        <v>1.031006824895426</v>
       </c>
       <c r="E18">
-        <v>0.9651410668156929</v>
+        <v>1.030568949930325</v>
       </c>
       <c r="F18">
-        <v>0.917977946406703</v>
+        <v>1.027828382085686</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029522451959192</v>
+        <v>1.034257399742129</v>
       </c>
       <c r="J18">
-        <v>0.9809703157257971</v>
+        <v>1.037119152811708</v>
       </c>
       <c r="K18">
-        <v>1.024305706250901</v>
+        <v>1.034348022052124</v>
       </c>
       <c r="L18">
-        <v>0.9795899206954053</v>
+        <v>1.033911669725752</v>
       </c>
       <c r="M18">
-        <v>0.9333804908613946</v>
+        <v>1.031180664216846</v>
       </c>
       <c r="N18">
-        <v>0.9823634060929954</v>
+        <v>1.03859198096793</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9527766447100025</v>
+        <v>1.031111972039194</v>
       </c>
       <c r="D19">
-        <v>1.010970800267727</v>
+        <v>1.031056654815027</v>
       </c>
       <c r="E19">
-        <v>0.9658191445841005</v>
+        <v>1.03068024526872</v>
       </c>
       <c r="F19">
-        <v>0.9190870506859017</v>
+        <v>1.028007441459057</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029740609624445</v>
+        <v>1.034285465606877</v>
       </c>
       <c r="J19">
-        <v>0.9816046870617228</v>
+        <v>1.037220134131292</v>
       </c>
       <c r="K19">
-        <v>1.024539270368532</v>
+        <v>1.034383294763914</v>
       </c>
       <c r="L19">
-        <v>0.9801872991250793</v>
+        <v>1.034008187910312</v>
       </c>
       <c r="M19">
-        <v>0.9343926490346182</v>
+        <v>1.031344664451607</v>
       </c>
       <c r="N19">
-        <v>0.9829986783089818</v>
+        <v>1.038693105692571</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9490998981104385</v>
+        <v>1.030535082677793</v>
       </c>
       <c r="D20">
-        <v>1.009611042985582</v>
+        <v>1.030833729014243</v>
       </c>
       <c r="E20">
-        <v>0.9627634616177654</v>
+        <v>1.030182266339712</v>
       </c>
       <c r="F20">
-        <v>0.9140835483268734</v>
+        <v>1.027206280274378</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028756581358602</v>
+        <v>1.034159762193019</v>
       </c>
       <c r="J20">
-        <v>0.9787444543388507</v>
+        <v>1.036768211272628</v>
       </c>
       <c r="K20">
-        <v>1.023486973122886</v>
+        <v>1.034225417526922</v>
       </c>
       <c r="L20">
-        <v>0.9774942734511448</v>
+        <v>1.033576257547392</v>
       </c>
       <c r="M20">
-        <v>0.9298264118186794</v>
+        <v>1.030610831527383</v>
       </c>
       <c r="N20">
-        <v>0.98013438372757</v>
+        <v>1.038240541051611</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.936595430645854</v>
+        <v>1.028654317364658</v>
       </c>
       <c r="D21">
-        <v>1.005033523065669</v>
+        <v>1.030107650985976</v>
       </c>
       <c r="E21">
-        <v>0.9523898588986709</v>
+        <v>1.02855901003262</v>
       </c>
       <c r="F21">
-        <v>0.8969865896176865</v>
+        <v>1.024595069951474</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025399693322703</v>
+        <v>1.033747799520339</v>
       </c>
       <c r="J21">
-        <v>0.9690059665529155</v>
+        <v>1.035293446055719</v>
       </c>
       <c r="K21">
-        <v>1.019920157208604</v>
+        <v>1.033709857010226</v>
       </c>
       <c r="L21">
-        <v>0.9683330715644928</v>
+        <v>1.03216706247673</v>
       </c>
       <c r="M21">
-        <v>0.9142230641148509</v>
+        <v>1.028218176290458</v>
       </c>
       <c r="N21">
-        <v>0.9703820661719584</v>
+        <v>1.036763681498936</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9282530500776728</v>
+        <v>1.027467686941228</v>
       </c>
       <c r="D22">
-        <v>1.002020825849667</v>
+        <v>1.029650104701459</v>
       </c>
       <c r="E22">
-        <v>0.9454854248763245</v>
+        <v>1.027535044526235</v>
       </c>
       <c r="F22">
-        <v>0.8855032300840329</v>
+        <v>1.022948099308599</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023153371404838</v>
+        <v>1.033486238512773</v>
       </c>
       <c r="J22">
-        <v>0.9625004842174715</v>
+        <v>1.03436188941887</v>
       </c>
       <c r="K22">
-        <v>1.017552355802624</v>
+        <v>1.033383932588302</v>
       </c>
       <c r="L22">
-        <v>0.9622201170573976</v>
+        <v>1.03127717798619</v>
       </c>
       <c r="M22">
-        <v>0.9037440456179739</v>
+        <v>1.02670837636156</v>
       </c>
       <c r="N22">
-        <v>0.9638673453054085</v>
+        <v>1.035830801944812</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9327252352604447</v>
+        <v>1.028097139120164</v>
       </c>
       <c r="D23">
-        <v>1.003631717134592</v>
+        <v>1.029892757585326</v>
       </c>
       <c r="E23">
-        <v>0.9491851090938483</v>
+        <v>1.028078191715311</v>
       </c>
       <c r="F23">
-        <v>0.8916674656117666</v>
+        <v>1.023821693657119</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024358126701275</v>
+        <v>1.033625139560014</v>
       </c>
       <c r="J23">
-        <v>0.9659887251443239</v>
+        <v>1.034856139393507</v>
       </c>
       <c r="K23">
-        <v>1.018820418513451</v>
+        <v>1.033556880378357</v>
       </c>
       <c r="L23">
-        <v>0.9654971954959148</v>
+        <v>1.031749294095095</v>
       </c>
       <c r="M23">
-        <v>0.9093689354586687</v>
+        <v>1.027509276111544</v>
       </c>
       <c r="N23">
-        <v>0.9673605399344845</v>
+        <v>1.036325753811104</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9493022465251444</v>
+        <v>1.030566545590606</v>
       </c>
       <c r="D24">
-        <v>1.009685715352592</v>
+        <v>1.030845884554605</v>
       </c>
       <c r="E24">
-        <v>0.9629315658374725</v>
+        <v>1.030209424650861</v>
       </c>
       <c r="F24">
-        <v>0.9143591767685287</v>
+        <v>1.027249971919159</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028810777180579</v>
+        <v>1.034166626011708</v>
       </c>
       <c r="J24">
-        <v>0.9789019065482888</v>
+        <v>1.036792863972868</v>
       </c>
       <c r="K24">
-        <v>1.023544847510227</v>
+        <v>1.034234031212918</v>
       </c>
       <c r="L24">
-        <v>0.9776424934197624</v>
+        <v>1.033599818412583</v>
       </c>
       <c r="M24">
-        <v>0.9300779577521491</v>
+        <v>1.03065085474067</v>
       </c>
       <c r="N24">
-        <v>0.9802920595372057</v>
+        <v>1.038265228761514</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9667973445036712</v>
+        <v>1.033414870039738</v>
       </c>
       <c r="D25">
-        <v>1.016212093724269</v>
+        <v>1.031947549169766</v>
       </c>
       <c r="E25">
-        <v>0.977493874021617</v>
+        <v>1.032668490741117</v>
       </c>
       <c r="F25">
-        <v>0.9380820420422548</v>
+        <v>1.031206774766572</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033476395775205</v>
+        <v>1.034784062626719</v>
       </c>
       <c r="J25">
-        <v>0.9924962113126993</v>
+        <v>1.039022073233669</v>
       </c>
       <c r="K25">
-        <v>1.028563844783584</v>
+        <v>1.035012235035127</v>
       </c>
       <c r="L25">
-        <v>0.9904519140576529</v>
+        <v>1.035730894099317</v>
       </c>
       <c r="M25">
-        <v>0.9517241523293716</v>
+        <v>1.034273809566011</v>
       </c>
       <c r="N25">
-        <v>0.9939056697736699</v>
+        <v>1.040497603755159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035673440647108</v>
+        <v>0.9796409633774174</v>
       </c>
       <c r="D2">
-        <v>1.032822811053197</v>
+        <v>1.021089120459335</v>
       </c>
       <c r="E2">
-        <v>1.034619009003198</v>
+        <v>0.9882188828877134</v>
       </c>
       <c r="F2">
-        <v>1.034346543335745</v>
+        <v>0.9553817564533407</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035267872505472</v>
+        <v>1.036868686306694</v>
       </c>
       <c r="J2">
-        <v>1.040785930075492</v>
+        <v>1.002448142172421</v>
       </c>
       <c r="K2">
-        <v>1.035626932582745</v>
+        <v>1.032262265330572</v>
       </c>
       <c r="L2">
-        <v>1.03741796361989</v>
+        <v>0.999844824606181</v>
       </c>
       <c r="M2">
-        <v>1.037146280468248</v>
+        <v>0.9674997968741801</v>
       </c>
       <c r="N2">
-        <v>1.042263965476052</v>
+        <v>1.003871733516714</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03730602150839</v>
+        <v>0.988432690300889</v>
       </c>
       <c r="D3">
-        <v>1.033456399407444</v>
+        <v>1.024467824853031</v>
       </c>
       <c r="E3">
-        <v>1.036029250861922</v>
+        <v>0.995576733420852</v>
       </c>
       <c r="F3">
-        <v>1.036617500872505</v>
+        <v>0.9671793969769349</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035614217647267</v>
+        <v>1.039169288989238</v>
       </c>
       <c r="J3">
-        <v>1.042058713845839</v>
+        <v>1.009243737063255</v>
       </c>
       <c r="K3">
-        <v>1.036069841880408</v>
+        <v>1.034796921952006</v>
       </c>
       <c r="L3">
-        <v>1.038635831029</v>
+        <v>1.006266525388613</v>
       </c>
       <c r="M3">
-        <v>1.039222517231887</v>
+        <v>0.9782501923252507</v>
       </c>
       <c r="N3">
-        <v>1.043538556745305</v>
+        <v>1.01067697893176</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038359123688883</v>
+        <v>0.9939037431338403</v>
       </c>
       <c r="D4">
-        <v>1.033865498509385</v>
+        <v>1.026586412366112</v>
       </c>
       <c r="E4">
-        <v>1.0369390799284</v>
+        <v>1.000162087114057</v>
       </c>
       <c r="F4">
-        <v>1.038083082856138</v>
+        <v>0.9745062349277713</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03583606318397</v>
+        <v>1.040590274705758</v>
       </c>
       <c r="J4">
-        <v>1.042878708986815</v>
+        <v>1.013464687871133</v>
       </c>
       <c r="K4">
-        <v>1.036354873154433</v>
+        <v>1.036374212035612</v>
       </c>
       <c r="L4">
-        <v>1.039420672106835</v>
+        <v>1.010258556280735</v>
       </c>
       <c r="M4">
-        <v>1.040561791040016</v>
+        <v>0.9849224074024097</v>
       </c>
       <c r="N4">
-        <v>1.044359716373436</v>
+        <v>1.014903923973935</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038801076634731</v>
+        <v>0.996155412937147</v>
       </c>
       <c r="D5">
-        <v>1.034037276700652</v>
+        <v>1.027461843389984</v>
       </c>
       <c r="E5">
-        <v>1.037320940114961</v>
+        <v>1.002050693839063</v>
       </c>
       <c r="F5">
-        <v>1.038698311826356</v>
+        <v>0.977518848624205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035928788763703</v>
+        <v>1.0411724333875</v>
       </c>
       <c r="J5">
-        <v>1.043222590330306</v>
+        <v>1.015199934386115</v>
       </c>
       <c r="K5">
-        <v>1.03647432941281</v>
+        <v>1.037023168499519</v>
       </c>
       <c r="L5">
-        <v>1.039749864726716</v>
+        <v>1.011900451039131</v>
       </c>
       <c r="M5">
-        <v>1.041123843470272</v>
+        <v>0.9876647641630479</v>
       </c>
       <c r="N5">
-        <v>1.044704086067878</v>
+        <v>1.016641634738003</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038875237706621</v>
+        <v>0.9965307439472051</v>
       </c>
       <c r="D6">
-        <v>1.034066106940558</v>
+        <v>1.027607965745688</v>
       </c>
       <c r="E6">
-        <v>1.037385019421646</v>
+        <v>1.00236558802048</v>
       </c>
       <c r="F6">
-        <v>1.038801559381876</v>
+        <v>0.9780208745365426</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035944326331172</v>
+        <v>1.041269313890651</v>
       </c>
       <c r="J6">
-        <v>1.043280280358805</v>
+        <v>1.015489068271785</v>
       </c>
       <c r="K6">
-        <v>1.036494364973751</v>
+        <v>1.037131326417595</v>
       </c>
       <c r="L6">
-        <v>1.039805093703949</v>
+        <v>1.012174073856304</v>
       </c>
       <c r="M6">
-        <v>1.041218157897136</v>
+        <v>0.9881216878305991</v>
       </c>
       <c r="N6">
-        <v>1.044761858022835</v>
+        <v>1.016931179226955</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038365032094759</v>
+        <v>0.9939340154167726</v>
       </c>
       <c r="D7">
-        <v>1.033867794628209</v>
+        <v>1.026598168526462</v>
       </c>
       <c r="E7">
-        <v>1.036944184829022</v>
+        <v>1.000187472629667</v>
       </c>
       <c r="F7">
-        <v>1.03809130708225</v>
+        <v>0.9745467479319181</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035837304298004</v>
+        <v>1.040598112153529</v>
       </c>
       <c r="J7">
-        <v>1.042883307247575</v>
+        <v>1.013488024863437</v>
       </c>
       <c r="K7">
-        <v>1.03635647078831</v>
+        <v>1.036382937857313</v>
       </c>
       <c r="L7">
-        <v>1.03942507374375</v>
+        <v>1.010280634843709</v>
       </c>
       <c r="M7">
-        <v>1.04056930502243</v>
+        <v>0.9849592904718566</v>
       </c>
       <c r="N7">
-        <v>1.044364321164254</v>
+        <v>1.014927294107445</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036225869019525</v>
+        <v>0.9826596830728899</v>
       </c>
       <c r="D8">
-        <v>1.03303711781638</v>
+        <v>1.022245602105361</v>
       </c>
       <c r="E8">
-        <v>1.035096171712946</v>
+        <v>0.9907437849068497</v>
       </c>
       <c r="F8">
-        <v>1.03511484368188</v>
+        <v>0.9594362032706466</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035385392121637</v>
+        <v>1.037660818705045</v>
       </c>
       <c r="J8">
-        <v>1.041216822479269</v>
+        <v>1.00478313405542</v>
       </c>
       <c r="K8">
-        <v>1.035776940657547</v>
+        <v>1.033132443318565</v>
       </c>
       <c r="L8">
-        <v>1.037830217365077</v>
+        <v>1.002050614700078</v>
       </c>
       <c r="M8">
-        <v>1.037848837059198</v>
+        <v>0.9711951925077873</v>
       </c>
       <c r="N8">
-        <v>1.042695469796428</v>
+        <v>1.006210041356015</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032430510189243</v>
+        <v>0.9609269580042512</v>
       </c>
       <c r="D9">
-        <v>1.031566548796502</v>
+        <v>1.014006899128426</v>
       </c>
       <c r="E9">
-        <v>1.031818558493934</v>
+        <v>0.97260145822875</v>
       </c>
       <c r="F9">
-        <v>1.029839002309584</v>
+        <v>0.9301443840040723</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034571576662682</v>
+        <v>1.031915789983155</v>
       </c>
       <c r="J9">
-        <v>1.038252262617374</v>
+        <v>0.9879391643236425</v>
       </c>
       <c r="K9">
-        <v>1.034743657214135</v>
+        <v>1.026876739473931</v>
       </c>
       <c r="L9">
-        <v>1.03499483727929</v>
+        <v>0.9861552701389312</v>
       </c>
       <c r="M9">
-        <v>1.03302180991313</v>
+        <v>0.9444825284315042</v>
       </c>
       <c r="N9">
-        <v>1.03972669991949</v>
+        <v>0.9893421512551882</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02988187524849</v>
+        <v>0.9448498229659689</v>
       </c>
       <c r="D10">
-        <v>1.030581433259586</v>
+        <v>1.008047017303247</v>
       </c>
       <c r="E10">
-        <v>1.029618451384772</v>
+        <v>0.959234380915184</v>
       </c>
       <c r="F10">
-        <v>1.02629926088867</v>
+        <v>0.9082869822191986</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034017052358593</v>
+        <v>1.027617263365358</v>
       </c>
       <c r="J10">
-        <v>1.036256254478592</v>
+        <v>0.9754363220047065</v>
       </c>
       <c r="K10">
-        <v>1.034046504106044</v>
+        <v>1.022272484634517</v>
       </c>
       <c r="L10">
-        <v>1.033087006506328</v>
+        <v>0.9743808597174424</v>
       </c>
       <c r="M10">
-        <v>1.029779880914249</v>
+        <v>0.9245362271507765</v>
       </c>
       <c r="N10">
-        <v>1.037727857220205</v>
+        <v>0.9768215534660631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028773701601263</v>
+        <v>0.9374143072557802</v>
       </c>
       <c r="D11">
-        <v>1.030153707707681</v>
+        <v>1.005331039839323</v>
       </c>
       <c r="E11">
-        <v>1.028662037278791</v>
+        <v>0.9530682996384182</v>
       </c>
       <c r="F11">
-        <v>1.024760789213491</v>
+        <v>0.8981102831168254</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033774045258514</v>
+        <v>1.025619937135307</v>
       </c>
       <c r="J11">
-        <v>1.035387122067489</v>
+        <v>0.9696441906580185</v>
       </c>
       <c r="K11">
-        <v>1.033742620617297</v>
+        <v>1.020153115993769</v>
       </c>
       <c r="L11">
-        <v>1.032256558765104</v>
+        <v>0.9689330845140681</v>
       </c>
       <c r="M11">
-        <v>1.02837006466518</v>
+        <v>0.9152485602224664</v>
       </c>
       <c r="N11">
-        <v>1.036857490541388</v>
+        <v>0.971021196628496</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028361366396811</v>
+        <v>0.934570643382168</v>
       </c>
       <c r="D12">
-        <v>1.029994653272127</v>
+        <v>1.004299241391849</v>
       </c>
       <c r="E12">
-        <v>1.028306203133305</v>
+        <v>0.9507128620649028</v>
       </c>
       <c r="F12">
-        <v>1.024188436633395</v>
+        <v>0.8942054892081436</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033683342330666</v>
+        <v>1.024854900376343</v>
       </c>
       <c r="J12">
-        <v>1.035063543476395</v>
+        <v>0.9674275959841956</v>
       </c>
       <c r="K12">
-        <v>1.033629438962836</v>
+        <v>1.019344535647417</v>
       </c>
       <c r="L12">
-        <v>1.031947426286469</v>
+        <v>0.9668494279558207</v>
       </c>
       <c r="M12">
-        <v>1.027845458113516</v>
+        <v>0.9116850478378106</v>
       </c>
       <c r="N12">
-        <v>1.036533452431579</v>
+        <v>0.9688014541359896</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028449846148644</v>
+        <v>0.9351845158521167</v>
       </c>
       <c r="D13">
-        <v>1.030028779101587</v>
+        <v>1.004521653490371</v>
       </c>
       <c r="E13">
-        <v>1.028382557233675</v>
+        <v>0.9512212100394652</v>
       </c>
       <c r="F13">
-        <v>1.024311249276397</v>
+        <v>0.895049056304427</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033702818366167</v>
+        <v>1.025020100638092</v>
       </c>
       <c r="J13">
-        <v>1.035132986111415</v>
+        <v>0.9679061649168742</v>
       </c>
       <c r="K13">
-        <v>1.033653730707964</v>
+        <v>1.019518990812124</v>
       </c>
       <c r="L13">
-        <v>1.032013766680375</v>
+        <v>0.9672992408994883</v>
       </c>
       <c r="M13">
-        <v>1.027958030943792</v>
+        <v>0.9124548742221252</v>
       </c>
       <c r="N13">
-        <v>1.036602993683106</v>
+        <v>0.9692807026914452</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028739632445009</v>
+        <v>0.9371809871606995</v>
       </c>
       <c r="D14">
-        <v>1.030140563871035</v>
+        <v>1.005246236818874</v>
       </c>
       <c r="E14">
-        <v>1.028632635826496</v>
+        <v>0.9528749806616483</v>
       </c>
       <c r="F14">
-        <v>1.024713496836946</v>
+        <v>0.8977901736831879</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033766556713</v>
+        <v>1.025557188839687</v>
       </c>
       <c r="J14">
-        <v>1.03536039023215</v>
+        <v>0.9694623498740401</v>
       </c>
       <c r="K14">
-        <v>1.033733271245513</v>
+        <v>1.020086730320617</v>
       </c>
       <c r="L14">
-        <v>1.032231019473587</v>
+        <v>0.9687621253207213</v>
       </c>
       <c r="M14">
-        <v>1.028326719838228</v>
+        <v>0.9149564234961173</v>
       </c>
       <c r="N14">
-        <v>1.036830720743777</v>
+        <v>0.9708390976097471</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028918084657301</v>
+        <v>0.9383998853157067</v>
       </c>
       <c r="D15">
-        <v>1.030209414455941</v>
+        <v>1.005689545008642</v>
       </c>
       <c r="E15">
-        <v>1.02878664026307</v>
+        <v>0.9538850200675458</v>
       </c>
       <c r="F15">
-        <v>1.024961215141987</v>
+        <v>0.8994619377752243</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033805769671111</v>
+        <v>1.025884949042304</v>
       </c>
       <c r="J15">
-        <v>1.035500402337151</v>
+        <v>0.9704122547715834</v>
       </c>
       <c r="K15">
-        <v>1.033782238166749</v>
+        <v>1.020433620802882</v>
       </c>
       <c r="L15">
-        <v>1.032364787240052</v>
+        <v>0.9696552342111217</v>
       </c>
       <c r="M15">
-        <v>1.028553756012755</v>
+        <v>0.9164821090633142</v>
       </c>
       <c r="N15">
-        <v>1.036970931682026</v>
+        <v>0.9717903514812007</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029955322562464</v>
+        <v>0.9453324570271814</v>
       </c>
       <c r="D16">
-        <v>1.030609795196228</v>
+        <v>1.008224204688987</v>
       </c>
       <c r="E16">
-        <v>1.029681845046516</v>
+        <v>0.9596349720997021</v>
       </c>
       <c r="F16">
-        <v>1.026401240415289</v>
+        <v>0.90894595220795</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034033118581953</v>
+        <v>1.027746735749827</v>
       </c>
       <c r="J16">
-        <v>1.036313832454857</v>
+        <v>0.9758120886635548</v>
       </c>
       <c r="K16">
-        <v>1.034066629166565</v>
+        <v>1.0224102932061</v>
       </c>
       <c r="L16">
-        <v>1.033142027821889</v>
+        <v>0.9747344368864703</v>
       </c>
       <c r="M16">
-        <v>1.029873315922474</v>
+        <v>0.9251376354801263</v>
       </c>
       <c r="N16">
-        <v>1.037785516963801</v>
+        <v>0.9771978537566683</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030604709904113</v>
+        <v>0.9495474078641101</v>
       </c>
       <c r="D17">
-        <v>1.030860629549275</v>
+        <v>1.009776212171887</v>
       </c>
       <c r="E17">
-        <v>1.030242367651369</v>
+        <v>0.9631352476273298</v>
       </c>
       <c r="F17">
-        <v>1.027302970036378</v>
+        <v>0.9146930811414773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034174950532276</v>
+        <v>1.028876433685835</v>
       </c>
       <c r="J17">
-        <v>1.036822766720583</v>
+        <v>0.9790926663340525</v>
       </c>
       <c r="K17">
-        <v>1.034244479061495</v>
+        <v>1.023614973103574</v>
       </c>
       <c r="L17">
-        <v>1.033628396997738</v>
+        <v>0.9778220722904976</v>
       </c>
       <c r="M17">
-        <v>1.030699402522268</v>
+        <v>0.9303826871976227</v>
       </c>
       <c r="N17">
-        <v>1.038295173974561</v>
+        <v>0.9804830902237455</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030983044246052</v>
+        <v>0.9519610043410471</v>
       </c>
       <c r="D18">
-        <v>1.031006824895426</v>
+        <v>1.010668620647122</v>
       </c>
       <c r="E18">
-        <v>1.030568949930325</v>
+        <v>0.9651410668156942</v>
       </c>
       <c r="F18">
-        <v>1.027828382085686</v>
+        <v>0.9179779464067043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034257399742129</v>
+        <v>1.029522451959192</v>
       </c>
       <c r="J18">
-        <v>1.037119152811708</v>
+        <v>0.980970315725798</v>
       </c>
       <c r="K18">
-        <v>1.034348022052124</v>
+        <v>1.024305706250901</v>
       </c>
       <c r="L18">
-        <v>1.033911669725752</v>
+        <v>0.9795899206954065</v>
       </c>
       <c r="M18">
-        <v>1.031180664216846</v>
+        <v>0.9333804908613957</v>
       </c>
       <c r="N18">
-        <v>1.03859198096793</v>
+        <v>0.9823634060929968</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031111972039194</v>
+        <v>0.9527766447100029</v>
       </c>
       <c r="D19">
-        <v>1.031056654815027</v>
+        <v>1.010970800267728</v>
       </c>
       <c r="E19">
-        <v>1.03068024526872</v>
+        <v>0.9658191445841011</v>
       </c>
       <c r="F19">
-        <v>1.028007441459057</v>
+        <v>0.9190870506859019</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034285465606877</v>
+        <v>1.029740609624445</v>
       </c>
       <c r="J19">
-        <v>1.037220134131292</v>
+        <v>0.9816046870617233</v>
       </c>
       <c r="K19">
-        <v>1.034383294763914</v>
+        <v>1.024539270368532</v>
       </c>
       <c r="L19">
-        <v>1.034008187910312</v>
+        <v>0.98018729912508</v>
       </c>
       <c r="M19">
-        <v>1.031344664451607</v>
+        <v>0.9343926490346184</v>
       </c>
       <c r="N19">
-        <v>1.038693105692571</v>
+        <v>0.9829986783089822</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030535082677793</v>
+        <v>0.9490998981104383</v>
       </c>
       <c r="D20">
-        <v>1.030833729014243</v>
+        <v>1.009611042985582</v>
       </c>
       <c r="E20">
-        <v>1.030182266339712</v>
+        <v>0.9627634616177652</v>
       </c>
       <c r="F20">
-        <v>1.027206280274378</v>
+        <v>0.9140835483268732</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034159762193019</v>
+        <v>1.028756581358602</v>
       </c>
       <c r="J20">
-        <v>1.036768211272628</v>
+        <v>0.9787444543388505</v>
       </c>
       <c r="K20">
-        <v>1.034225417526922</v>
+        <v>1.023486973122886</v>
       </c>
       <c r="L20">
-        <v>1.033576257547392</v>
+        <v>0.9774942734511446</v>
       </c>
       <c r="M20">
-        <v>1.030610831527383</v>
+        <v>0.9298264118186791</v>
       </c>
       <c r="N20">
-        <v>1.038240541051611</v>
+        <v>0.9801343837275702</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028654317364658</v>
+        <v>0.9365954306458544</v>
       </c>
       <c r="D21">
-        <v>1.030107650985976</v>
+        <v>1.005033523065669</v>
       </c>
       <c r="E21">
-        <v>1.02855901003262</v>
+        <v>0.9523898588986714</v>
       </c>
       <c r="F21">
-        <v>1.024595069951474</v>
+        <v>0.8969865896176868</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033747799520339</v>
+        <v>1.025399693322703</v>
       </c>
       <c r="J21">
-        <v>1.035293446055719</v>
+        <v>0.9690059665529157</v>
       </c>
       <c r="K21">
-        <v>1.033709857010226</v>
+        <v>1.019920157208605</v>
       </c>
       <c r="L21">
-        <v>1.03216706247673</v>
+        <v>0.9683330715644933</v>
       </c>
       <c r="M21">
-        <v>1.028218176290458</v>
+        <v>0.9142230641148512</v>
       </c>
       <c r="N21">
-        <v>1.036763681498936</v>
+        <v>0.9703820661719589</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027467686941228</v>
+        <v>0.9282530500776712</v>
       </c>
       <c r="D22">
-        <v>1.029650104701459</v>
+        <v>1.002020825849666</v>
       </c>
       <c r="E22">
-        <v>1.027535044526235</v>
+        <v>0.9454854248763233</v>
       </c>
       <c r="F22">
-        <v>1.022948099308599</v>
+        <v>0.8855032300840319</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033486238512773</v>
+        <v>1.023153371404838</v>
       </c>
       <c r="J22">
-        <v>1.03436188941887</v>
+        <v>0.9625004842174701</v>
       </c>
       <c r="K22">
-        <v>1.033383932588302</v>
+        <v>1.017552355802624</v>
       </c>
       <c r="L22">
-        <v>1.03127717798619</v>
+        <v>0.9622201170573964</v>
       </c>
       <c r="M22">
-        <v>1.02670837636156</v>
+        <v>0.9037440456179728</v>
       </c>
       <c r="N22">
-        <v>1.035830801944812</v>
+        <v>0.9638673453054074</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028097139120164</v>
+        <v>0.9327252352604448</v>
       </c>
       <c r="D23">
-        <v>1.029892757585326</v>
+        <v>1.003631717134592</v>
       </c>
       <c r="E23">
-        <v>1.028078191715311</v>
+        <v>0.9491851090938482</v>
       </c>
       <c r="F23">
-        <v>1.023821693657119</v>
+        <v>0.8916674656117664</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033625139560014</v>
+        <v>1.024358126701275</v>
       </c>
       <c r="J23">
-        <v>1.034856139393507</v>
+        <v>0.9659887251443238</v>
       </c>
       <c r="K23">
-        <v>1.033556880378357</v>
+        <v>1.018820418513451</v>
       </c>
       <c r="L23">
-        <v>1.031749294095095</v>
+        <v>0.9654971954959147</v>
       </c>
       <c r="M23">
-        <v>1.027509276111544</v>
+        <v>0.9093689354586684</v>
       </c>
       <c r="N23">
-        <v>1.036325753811104</v>
+        <v>0.9673605399344843</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030566545590606</v>
+        <v>0.9493022465251419</v>
       </c>
       <c r="D24">
-        <v>1.030845884554605</v>
+        <v>1.009685715352592</v>
       </c>
       <c r="E24">
-        <v>1.030209424650861</v>
+        <v>0.9629315658374703</v>
       </c>
       <c r="F24">
-        <v>1.027249971919159</v>
+        <v>0.9143591767685253</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034166626011708</v>
+        <v>1.028810777180579</v>
       </c>
       <c r="J24">
-        <v>1.036792863972868</v>
+        <v>0.9789019065482865</v>
       </c>
       <c r="K24">
-        <v>1.034234031212918</v>
+        <v>1.023544847510226</v>
       </c>
       <c r="L24">
-        <v>1.033599818412583</v>
+        <v>0.9776424934197603</v>
       </c>
       <c r="M24">
-        <v>1.03065085474067</v>
+        <v>0.9300779577521456</v>
       </c>
       <c r="N24">
-        <v>1.038265228761514</v>
+        <v>0.9802920595372029</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033414870039738</v>
+        <v>0.9667973445036712</v>
       </c>
       <c r="D25">
-        <v>1.031947549169766</v>
+        <v>1.016212093724268</v>
       </c>
       <c r="E25">
-        <v>1.032668490741117</v>
+        <v>0.9774938740216169</v>
       </c>
       <c r="F25">
-        <v>1.031206774766572</v>
+        <v>0.9380820420422542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034784062626719</v>
+        <v>1.033476395775204</v>
       </c>
       <c r="J25">
-        <v>1.039022073233669</v>
+        <v>0.9924962113126991</v>
       </c>
       <c r="K25">
-        <v>1.035012235035127</v>
+        <v>1.028563844783584</v>
       </c>
       <c r="L25">
-        <v>1.035730894099317</v>
+        <v>0.9904519140576526</v>
       </c>
       <c r="M25">
-        <v>1.034273809566011</v>
+        <v>0.9517241523293712</v>
       </c>
       <c r="N25">
-        <v>1.040497603755159</v>
+        <v>0.9939056697736696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9796409633774174</v>
+        <v>0.9597507958264156</v>
       </c>
       <c r="D2">
-        <v>1.021089120459335</v>
+        <v>1.039993959943601</v>
       </c>
       <c r="E2">
-        <v>0.9882188828877134</v>
+        <v>0.9714337490663891</v>
       </c>
       <c r="F2">
-        <v>0.9553817564533407</v>
+        <v>1.029337039122911</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036868686306694</v>
+        <v>1.056819238343113</v>
       </c>
       <c r="J2">
-        <v>1.002448142172421</v>
+        <v>0.9832058148901044</v>
       </c>
       <c r="K2">
-        <v>1.032262265330572</v>
+        <v>1.050922875611076</v>
       </c>
       <c r="L2">
-        <v>0.999844824606181</v>
+        <v>0.983305943981857</v>
       </c>
       <c r="M2">
-        <v>0.9674997968741801</v>
+        <v>1.040402249581659</v>
       </c>
       <c r="N2">
-        <v>1.003871733516714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9977746564036033</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040548060972171</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047077118637227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.988432690300889</v>
+        <v>0.966745741848582</v>
       </c>
       <c r="D3">
-        <v>1.024467824853031</v>
+        <v>1.0425054130909</v>
       </c>
       <c r="E3">
-        <v>0.995576733420852</v>
+        <v>0.9771733506731034</v>
       </c>
       <c r="F3">
-        <v>0.9671793969769349</v>
+        <v>1.032739033755451</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039169288989238</v>
+        <v>1.05760872125973</v>
       </c>
       <c r="J3">
-        <v>1.009243737063255</v>
+        <v>0.9881859149115352</v>
       </c>
       <c r="K3">
-        <v>1.034796921952006</v>
+        <v>1.052621849526089</v>
       </c>
       <c r="L3">
-        <v>1.006266525388613</v>
+        <v>0.988106881794933</v>
       </c>
       <c r="M3">
-        <v>0.9782501923252507</v>
+        <v>1.042969472375443</v>
       </c>
       <c r="N3">
-        <v>1.01067697893176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9995228550444237</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042579842694661</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048275779418151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9939037431338403</v>
+        <v>0.9711417160863229</v>
       </c>
       <c r="D4">
-        <v>1.026586412366112</v>
+        <v>1.04408959996751</v>
       </c>
       <c r="E4">
-        <v>1.000162087114057</v>
+        <v>0.9807881519896055</v>
       </c>
       <c r="F4">
-        <v>0.9745062349277713</v>
+        <v>1.034886260110786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040590274705758</v>
+        <v>1.058089797137841</v>
       </c>
       <c r="J4">
-        <v>1.013464687871133</v>
+        <v>0.9913135793736605</v>
       </c>
       <c r="K4">
-        <v>1.036374212035612</v>
+        <v>1.053683502278046</v>
       </c>
       <c r="L4">
-        <v>1.010258556280735</v>
+        <v>0.9911241141172723</v>
       </c>
       <c r="M4">
-        <v>0.9849224074024097</v>
+        <v>1.04458110997056</v>
       </c>
       <c r="N4">
-        <v>1.014903923973935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.000619609043539</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043855341009225</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04902732665734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.996155412937147</v>
+        <v>0.9729598666166274</v>
       </c>
       <c r="D5">
-        <v>1.027461843389984</v>
+        <v>1.044747356193627</v>
       </c>
       <c r="E5">
-        <v>1.002050693839063</v>
+        <v>0.9822853398096054</v>
       </c>
       <c r="F5">
-        <v>0.977518848624205</v>
+        <v>1.035774808851529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0411724333875</v>
+        <v>1.058285691223345</v>
       </c>
       <c r="J5">
-        <v>1.015199934386115</v>
+        <v>0.9926064702393808</v>
       </c>
       <c r="K5">
-        <v>1.037023168499519</v>
+        <v>1.054122296315738</v>
       </c>
       <c r="L5">
-        <v>1.011900451039131</v>
+        <v>0.9923722720403685</v>
       </c>
       <c r="M5">
-        <v>0.9876647641630479</v>
+        <v>1.045245545557756</v>
       </c>
       <c r="N5">
-        <v>1.016641634738003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.001073545032482</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044381194605028</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049344665031489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9965307439472051</v>
+        <v>0.973262902126859</v>
       </c>
       <c r="D6">
-        <v>1.027607965745688</v>
+        <v>1.044858782464039</v>
       </c>
       <c r="E6">
-        <v>1.00236558802048</v>
+        <v>0.9825354368202143</v>
       </c>
       <c r="F6">
-        <v>0.9780208745365426</v>
+        <v>1.035921225763426</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041269313890651</v>
+        <v>1.058318957666313</v>
       </c>
       <c r="J6">
-        <v>1.015489068271785</v>
+        <v>0.9928217766188497</v>
       </c>
       <c r="K6">
-        <v>1.037131326417595</v>
+        <v>1.05419698314795</v>
       </c>
       <c r="L6">
-        <v>1.012174073856304</v>
+        <v>0.9925806797590603</v>
       </c>
       <c r="M6">
-        <v>0.9881216878305991</v>
+        <v>1.045354413535487</v>
       </c>
       <c r="N6">
-        <v>1.016931179226955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.001150184047838</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044467355844258</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049406109296445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9939340154167726</v>
+        <v>0.9711644832828477</v>
       </c>
       <c r="D7">
-        <v>1.026598168526462</v>
+        <v>1.044102222712265</v>
       </c>
       <c r="E7">
-        <v>1.000187472629667</v>
+        <v>0.9808081457293449</v>
       </c>
       <c r="F7">
-        <v>0.9745467479319181</v>
+        <v>1.034892281934576</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040598112153529</v>
+        <v>1.058094373790885</v>
       </c>
       <c r="J7">
-        <v>1.013488024863437</v>
+        <v>0.9913293430109706</v>
       </c>
       <c r="K7">
-        <v>1.036382937857313</v>
+        <v>1.053693155259217</v>
       </c>
       <c r="L7">
-        <v>1.010280634843709</v>
+        <v>0.9911407731595461</v>
       </c>
       <c r="M7">
-        <v>0.9849592904718566</v>
+        <v>1.044584198614374</v>
       </c>
       <c r="N7">
-        <v>1.014927294107445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.000628050979274</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043857785452402</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049054015760287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9826596830728899</v>
+        <v>0.9621400707287868</v>
       </c>
       <c r="D8">
-        <v>1.022245602105361</v>
+        <v>1.040854562273223</v>
       </c>
       <c r="E8">
-        <v>0.9907437849068497</v>
+        <v>0.9733941927209412</v>
       </c>
       <c r="F8">
-        <v>0.9594362032706466</v>
+        <v>1.030489170191613</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037660818705045</v>
+        <v>1.057093921040341</v>
       </c>
       <c r="J8">
-        <v>1.00478313405542</v>
+        <v>0.9849065650854726</v>
       </c>
       <c r="K8">
-        <v>1.033132443318565</v>
+        <v>1.051508171396008</v>
       </c>
       <c r="L8">
-        <v>1.002050614700078</v>
+        <v>0.9849470388676973</v>
       </c>
       <c r="M8">
-        <v>0.9711951925077873</v>
+        <v>1.041271396014277</v>
       </c>
       <c r="N8">
-        <v>1.006210041356015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.998375766121152</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041235931725257</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047513602462918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9609269580042512</v>
+        <v>0.9451598174423376</v>
       </c>
       <c r="D9">
-        <v>1.014006899128426</v>
+        <v>1.034802098630089</v>
       </c>
       <c r="E9">
-        <v>0.97260145822875</v>
+        <v>0.9595103308192653</v>
       </c>
       <c r="F9">
-        <v>0.9301443840040723</v>
+        <v>1.022305742021127</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031915789983155</v>
+        <v>1.055095177199591</v>
       </c>
       <c r="J9">
-        <v>0.9879391643236425</v>
+        <v>0.9728097023248721</v>
       </c>
       <c r="K9">
-        <v>1.026876739473931</v>
+        <v>1.04735468843117</v>
       </c>
       <c r="L9">
-        <v>0.9861552701389312</v>
+        <v>0.9732963601029504</v>
       </c>
       <c r="M9">
-        <v>0.9444825284315042</v>
+        <v>1.035047001090143</v>
       </c>
       <c r="N9">
-        <v>0.9893421512551882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9941201007040037</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036309728609658</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044573735407567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9448498229659689</v>
+        <v>0.9330011677853541</v>
       </c>
       <c r="D10">
-        <v>1.008047017303247</v>
+        <v>1.03055758947322</v>
       </c>
       <c r="E10">
-        <v>0.959234380915184</v>
+        <v>0.9496340909784943</v>
       </c>
       <c r="F10">
-        <v>0.9082869822191986</v>
+        <v>1.016585863962772</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027617263365358</v>
+        <v>1.053611026718248</v>
       </c>
       <c r="J10">
-        <v>0.9754363220047065</v>
+        <v>0.9641505212911111</v>
       </c>
       <c r="K10">
-        <v>1.022272484634517</v>
+        <v>1.044396198145027</v>
       </c>
       <c r="L10">
-        <v>0.9743808597174424</v>
+        <v>0.9649764274074288</v>
       </c>
       <c r="M10">
-        <v>0.9245362271507765</v>
+        <v>1.030661976514523</v>
       </c>
       <c r="N10">
-        <v>0.9768215534660631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9910872616799778</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032891036315187</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042498579960376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9374143072557802</v>
+        <v>0.927584905460038</v>
       </c>
       <c r="D11">
-        <v>1.005331039839323</v>
+        <v>1.028834307859225</v>
       </c>
       <c r="E11">
-        <v>0.9530682996384182</v>
+        <v>0.9453278449636221</v>
       </c>
       <c r="F11">
-        <v>0.8981102831168254</v>
+        <v>1.014457712534882</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025619937135307</v>
+        <v>1.053015689270413</v>
       </c>
       <c r="J11">
-        <v>0.9696441906580185</v>
+        <v>0.9603146062491613</v>
       </c>
       <c r="K11">
-        <v>1.020153115993769</v>
+        <v>1.043232194702181</v>
       </c>
       <c r="L11">
-        <v>0.9689330845140681</v>
+        <v>0.961360093854373</v>
       </c>
       <c r="M11">
-        <v>0.9152485602224664</v>
+        <v>1.02911203264144</v>
       </c>
       <c r="N11">
-        <v>0.971021196628496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9898912221979144</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032103864423245</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041708133223687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.934570643382168</v>
+        <v>0.9254481789851161</v>
       </c>
       <c r="D12">
-        <v>1.004299241391849</v>
+        <v>1.028171820296937</v>
       </c>
       <c r="E12">
-        <v>0.9507128620649028</v>
+        <v>0.943658343627544</v>
       </c>
       <c r="F12">
-        <v>0.8942054892081436</v>
+        <v>1.013708789689556</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024854900376343</v>
+        <v>1.052781613202674</v>
       </c>
       <c r="J12">
-        <v>0.9674275959841956</v>
+        <v>0.9587808629295804</v>
       </c>
       <c r="K12">
-        <v>1.019344535647417</v>
+        <v>1.042778488617975</v>
       </c>
       <c r="L12">
-        <v>0.9668494279558207</v>
+        <v>0.9599508762353541</v>
       </c>
       <c r="M12">
-        <v>0.9116850478378106</v>
+        <v>1.028577980791927</v>
       </c>
       <c r="N12">
-        <v>0.9688014541359896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9894759725316339</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032010133235492</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041387353623672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9351845158521167</v>
+        <v>0.9257416371430995</v>
       </c>
       <c r="D13">
-        <v>1.004521653490371</v>
+        <v>1.028300077903809</v>
       </c>
       <c r="E13">
-        <v>0.9512212100394652</v>
+        <v>0.9439420933253803</v>
       </c>
       <c r="F13">
-        <v>0.895049056304427</v>
+        <v>1.013994643073896</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025020100638092</v>
+        <v>1.052824891454091</v>
       </c>
       <c r="J13">
-        <v>0.9679061649168742</v>
+        <v>0.9589531986137706</v>
       </c>
       <c r="K13">
-        <v>1.019518990812124</v>
+        <v>1.042862177210403</v>
       </c>
       <c r="L13">
-        <v>0.9672992408994883</v>
+        <v>0.9601803287310798</v>
       </c>
       <c r="M13">
-        <v>0.9124548742221252</v>
+        <v>1.02881540024496</v>
       </c>
       <c r="N13">
-        <v>0.9692807026914452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9896494203437225</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032476257876171</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041444051861112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9371809871606995</v>
+        <v>0.9270386492066439</v>
       </c>
       <c r="D14">
-        <v>1.005246236818874</v>
+        <v>1.028742220819363</v>
       </c>
       <c r="E14">
-        <v>0.9528749806616483</v>
+        <v>0.9450172659175503</v>
       </c>
       <c r="F14">
-        <v>0.8977901736831879</v>
+        <v>1.014653759334648</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025557188839687</v>
+        <v>1.052977490327669</v>
       </c>
       <c r="J14">
-        <v>0.9694623498740401</v>
+        <v>0.9598371208316679</v>
       </c>
       <c r="K14">
-        <v>1.020086730320617</v>
+        <v>1.043158006559094</v>
       </c>
       <c r="L14">
-        <v>0.9687621253207213</v>
+        <v>0.9610747583686309</v>
       </c>
       <c r="M14">
-        <v>0.9149564234961173</v>
+        <v>1.029321132659998</v>
       </c>
       <c r="N14">
-        <v>0.9708390976097471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9900343272181001</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033050268495486</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041654621986418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9383998853157067</v>
+        <v>0.9278886072775983</v>
       </c>
       <c r="D15">
-        <v>1.005689545008642</v>
+        <v>1.029032035754052</v>
       </c>
       <c r="E15">
-        <v>0.9538850200675458</v>
+        <v>0.9457098423970967</v>
       </c>
       <c r="F15">
-        <v>0.8994619377752243</v>
+        <v>1.015055823860098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025884949042304</v>
+        <v>1.053080097895441</v>
       </c>
       <c r="J15">
-        <v>0.9704122547715834</v>
+        <v>0.9604311137087448</v>
       </c>
       <c r="K15">
-        <v>1.020433620802882</v>
+        <v>1.043357454086277</v>
       </c>
       <c r="L15">
-        <v>0.9696552342111217</v>
+        <v>0.9616556330231084</v>
       </c>
       <c r="M15">
-        <v>0.9164821090633142</v>
+        <v>1.029628904727392</v>
       </c>
       <c r="N15">
-        <v>0.9717903514812007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9902593935392471</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033331243325354</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041801456526589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9453324570271814</v>
+        <v>0.9330971314088625</v>
       </c>
       <c r="D16">
-        <v>1.008224204688987</v>
+        <v>1.030851007326111</v>
       </c>
       <c r="E16">
-        <v>0.9596349720997021</v>
+        <v>0.9499165975591598</v>
       </c>
       <c r="F16">
-        <v>0.90894595220795</v>
+        <v>1.017508753578325</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027746735749827</v>
+        <v>1.053740952795131</v>
       </c>
       <c r="J16">
-        <v>0.9758120886635548</v>
+        <v>0.9641555822029243</v>
       </c>
       <c r="K16">
-        <v>1.0224102932061</v>
+        <v>1.044649607126085</v>
       </c>
       <c r="L16">
-        <v>0.9747344368864703</v>
+        <v>0.9652135517449233</v>
       </c>
       <c r="M16">
-        <v>0.9251376354801263</v>
+        <v>1.031533146613161</v>
       </c>
       <c r="N16">
-        <v>0.9771978537566683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9915397045121971</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034797455866465</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042718176019115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9495474078641101</v>
+        <v>0.9363947852076363</v>
       </c>
       <c r="D17">
-        <v>1.009776212171887</v>
+        <v>1.032011541565873</v>
       </c>
       <c r="E17">
-        <v>0.9631352476273298</v>
+        <v>0.952569507271026</v>
       </c>
       <c r="F17">
-        <v>0.9146930811414773</v>
+        <v>1.019034906762033</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028876433685835</v>
+        <v>1.054162559716426</v>
       </c>
       <c r="J17">
-        <v>0.9790926663340525</v>
+        <v>0.9665374638600527</v>
       </c>
       <c r="K17">
-        <v>1.023614973103574</v>
+        <v>1.045480644890544</v>
       </c>
       <c r="L17">
-        <v>0.9778220722904976</v>
+        <v>0.9674636179766365</v>
       </c>
       <c r="M17">
-        <v>0.9303826871976227</v>
+        <v>1.032717218353972</v>
       </c>
       <c r="N17">
-        <v>0.9804830902237455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9923160151474196</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035603792039096</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043308300806454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9519610043410471</v>
+        <v>0.9383767645614906</v>
       </c>
       <c r="D18">
-        <v>1.010668620647122</v>
+        <v>1.032690058682975</v>
       </c>
       <c r="E18">
-        <v>0.9651410668156942</v>
+        <v>0.9541409164217278</v>
       </c>
       <c r="F18">
-        <v>0.9179779464067043</v>
+        <v>1.019864728985868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029522451959192</v>
+        <v>1.054408268844624</v>
       </c>
       <c r="J18">
-        <v>0.980970315725798</v>
+        <v>0.9679884763787379</v>
       </c>
       <c r="K18">
-        <v>1.024305706250901</v>
+        <v>1.045967407760679</v>
       </c>
       <c r="L18">
-        <v>0.9795899206954065</v>
+        <v>0.9688011494318423</v>
       </c>
       <c r="M18">
-        <v>0.9333804908613957</v>
+        <v>1.033349160166517</v>
       </c>
       <c r="N18">
-        <v>0.9823634060929968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9927286557968812</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035864618438246</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043640924284609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9527766447100029</v>
+        <v>0.939062762841014</v>
       </c>
       <c r="D19">
-        <v>1.010970800267728</v>
+        <v>1.032862106648979</v>
       </c>
       <c r="E19">
-        <v>0.9658191445841011</v>
+        <v>0.9546467547306344</v>
       </c>
       <c r="F19">
-        <v>0.9190870506859019</v>
+        <v>1.019946041097867</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029740609624445</v>
+        <v>1.054461832091399</v>
       </c>
       <c r="J19">
-        <v>0.9816046870617233</v>
+        <v>0.9684939722906535</v>
       </c>
       <c r="K19">
-        <v>1.024539270368532</v>
+        <v>1.046075086930451</v>
       </c>
       <c r="L19">
-        <v>0.98018729912508</v>
+        <v>0.9692280872539679</v>
       </c>
       <c r="M19">
-        <v>0.9343926490346184</v>
+        <v>1.033366391802973</v>
       </c>
       <c r="N19">
-        <v>0.9829986783089822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9927916350841505</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035551198440647</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043723387091645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9490998981104383</v>
+        <v>0.9361727039393305</v>
       </c>
       <c r="D20">
-        <v>1.009611042985582</v>
+        <v>1.031661500346509</v>
       </c>
       <c r="E20">
-        <v>0.9627634616177652</v>
+        <v>0.9522100002096033</v>
       </c>
       <c r="F20">
-        <v>0.9140835483268732</v>
+        <v>1.018050015449757</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028756581358602</v>
+        <v>1.054003220682119</v>
       </c>
       <c r="J20">
-        <v>0.9787444543388505</v>
+        <v>0.9664068996308164</v>
       </c>
       <c r="K20">
-        <v>1.023486973122886</v>
+        <v>1.045169565786784</v>
       </c>
       <c r="L20">
-        <v>0.9774942734511446</v>
+        <v>0.9671486656107686</v>
       </c>
       <c r="M20">
-        <v>0.9298264118186791</v>
+        <v>1.031782732594891</v>
       </c>
       <c r="N20">
-        <v>0.9801343837275702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9918874997551289</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03376738239968</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043087041125964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9365954306458544</v>
+        <v>0.926853559589668</v>
       </c>
       <c r="D21">
-        <v>1.005033523065669</v>
+        <v>1.028402834250256</v>
       </c>
       <c r="E21">
-        <v>0.9523898588986714</v>
+        <v>0.9446473747370462</v>
       </c>
       <c r="F21">
-        <v>0.8969865896176868</v>
+        <v>1.013618264492789</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025399693322703</v>
+        <v>1.052826776999468</v>
       </c>
       <c r="J21">
-        <v>0.9690059665529157</v>
+        <v>0.9597631915172419</v>
       </c>
       <c r="K21">
-        <v>1.019920157208605</v>
+        <v>1.042865371567898</v>
       </c>
       <c r="L21">
-        <v>0.9683330715644933</v>
+        <v>0.9607591986201309</v>
       </c>
       <c r="M21">
-        <v>0.9142230641148512</v>
+        <v>1.028346147597543</v>
       </c>
       <c r="N21">
-        <v>0.9703820661719589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9895324025101266</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031006401342575</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041461120899066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9282530500776712</v>
+        <v>0.9207808636540514</v>
       </c>
       <c r="D22">
-        <v>1.002020825849666</v>
+        <v>1.026314554550711</v>
       </c>
       <c r="E22">
-        <v>0.9454854248763233</v>
+        <v>0.9397373657811755</v>
       </c>
       <c r="F22">
-        <v>0.8855032300840319</v>
+        <v>1.010798071930553</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023153371404838</v>
+        <v>1.052057979904529</v>
       </c>
       <c r="J22">
-        <v>0.9625004842174701</v>
+        <v>0.9554397348346938</v>
       </c>
       <c r="K22">
-        <v>1.017552355802624</v>
+        <v>1.04138213859737</v>
       </c>
       <c r="L22">
-        <v>0.9622201170573964</v>
+        <v>0.9566052473042673</v>
       </c>
       <c r="M22">
-        <v>0.9037440456179728</v>
+        <v>1.026158609584446</v>
       </c>
       <c r="N22">
-        <v>0.9638673453054074</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9880039169945597</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029275086314381</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040399043179304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9327252352604448</v>
+        <v>0.9240272844154143</v>
       </c>
       <c r="D23">
-        <v>1.003631717134592</v>
+        <v>1.027428865884529</v>
       </c>
       <c r="E23">
-        <v>0.9491851090938482</v>
+        <v>0.942359255398969</v>
       </c>
       <c r="F23">
-        <v>0.8916674656117664</v>
+        <v>1.012312511561732</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024358126701275</v>
+        <v>1.052470079490845</v>
       </c>
       <c r="J23">
-        <v>0.9659887251443238</v>
+        <v>0.9577517724336624</v>
       </c>
       <c r="K23">
-        <v>1.018820418513451</v>
+        <v>1.042175156142846</v>
       </c>
       <c r="L23">
-        <v>0.9654971954959147</v>
+        <v>0.9588244015474335</v>
       </c>
       <c r="M23">
-        <v>0.9093689354586684</v>
+        <v>1.027336682452151</v>
       </c>
       <c r="N23">
-        <v>0.9673605399344843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9888178625067497</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030207466196236</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040950178102094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9493022465251419</v>
+        <v>0.9363130174854255</v>
       </c>
       <c r="D24">
-        <v>1.009685715352592</v>
+        <v>1.031692257822416</v>
       </c>
       <c r="E24">
-        <v>0.9629315658374703</v>
+        <v>0.9523144914063495</v>
       </c>
       <c r="F24">
-        <v>0.9143591767685253</v>
+        <v>1.018084533479728</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028810777180579</v>
+        <v>1.054010697438388</v>
       </c>
       <c r="J24">
-        <v>0.9789019065482865</v>
+        <v>0.9665039929731006</v>
       </c>
       <c r="K24">
-        <v>1.023544847510226</v>
+        <v>1.045184777548163</v>
       </c>
       <c r="L24">
-        <v>0.9776424934197603</v>
+        <v>0.9672341743686708</v>
       </c>
       <c r="M24">
-        <v>0.9300779577521456</v>
+        <v>1.031801336949567</v>
       </c>
       <c r="N24">
-        <v>0.9802920595372029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9919037298736973</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033740983347655</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043070653971061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9667973445036712</v>
+        <v>0.9496857178311946</v>
       </c>
       <c r="D25">
-        <v>1.016212093724268</v>
+        <v>1.03640870737918</v>
       </c>
       <c r="E25">
-        <v>0.9774938740216169</v>
+        <v>0.9632044423123365</v>
       </c>
       <c r="F25">
-        <v>0.9380820420422542</v>
+        <v>1.024461754113471</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033476395775204</v>
+        <v>1.055641203300683</v>
       </c>
       <c r="J25">
-        <v>0.9924962113126991</v>
+        <v>0.976033675892109</v>
       </c>
       <c r="K25">
-        <v>1.028563844783584</v>
+        <v>1.048466943941895</v>
       </c>
       <c r="L25">
-        <v>0.9904519140576526</v>
+        <v>0.9764021462291372</v>
       </c>
       <c r="M25">
-        <v>0.9517241523293712</v>
+        <v>1.036691840258072</v>
       </c>
       <c r="N25">
-        <v>0.9939056697736696</v>
+        <v>0.99526041712086</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037611514961954</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045388434383082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9597507958264156</v>
+        <v>0.9627360359545651</v>
       </c>
       <c r="D2">
-        <v>1.039993959943601</v>
+        <v>1.037541927333294</v>
       </c>
       <c r="E2">
-        <v>0.9714337490663891</v>
+        <v>0.9739573590989975</v>
       </c>
       <c r="F2">
-        <v>1.029337039122911</v>
+        <v>1.02864372717198</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056819238343113</v>
+        <v>1.055573783648867</v>
       </c>
       <c r="J2">
-        <v>0.9832058148901044</v>
+        <v>0.9860914475727194</v>
       </c>
       <c r="K2">
-        <v>1.050922875611076</v>
+        <v>1.048501893145961</v>
       </c>
       <c r="L2">
-        <v>0.983305943981857</v>
+        <v>0.9857918410101774</v>
       </c>
       <c r="M2">
-        <v>1.040402249581659</v>
+        <v>1.039717927076508</v>
       </c>
       <c r="N2">
-        <v>0.9977746564036033</v>
+        <v>1.002971102274478</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040548060972171</v>
+        <v>1.040006465424376</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047077118637227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045373990287303</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024890073017669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.966745741848582</v>
+        <v>0.9693682549929801</v>
       </c>
       <c r="D3">
-        <v>1.0425054130909</v>
+        <v>1.039780906290481</v>
       </c>
       <c r="E3">
-        <v>0.9771733506731034</v>
+        <v>0.9793923676343237</v>
       </c>
       <c r="F3">
-        <v>1.032739033755451</v>
+        <v>1.031800106488605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05760872125973</v>
+        <v>1.056223479537908</v>
       </c>
       <c r="J3">
-        <v>0.9881859149115352</v>
+        <v>0.9907302932638341</v>
       </c>
       <c r="K3">
-        <v>1.052621849526089</v>
+        <v>1.049928879426121</v>
       </c>
       <c r="L3">
-        <v>0.988106881794933</v>
+        <v>0.9902958990407906</v>
       </c>
       <c r="M3">
-        <v>1.042969472375443</v>
+        <v>1.042041645977938</v>
       </c>
       <c r="N3">
-        <v>0.9995228550444237</v>
+        <v>1.004280787655701</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042579842694661</v>
+        <v>1.04184553204927</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048275779418151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046380061268886</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025180491087381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9711417160863229</v>
+        <v>0.9735420225321244</v>
       </c>
       <c r="D4">
-        <v>1.04408959996751</v>
+        <v>1.04119557549945</v>
       </c>
       <c r="E4">
-        <v>0.9807881519896055</v>
+        <v>0.9828201200248307</v>
       </c>
       <c r="F4">
-        <v>1.034886260110786</v>
+        <v>1.03379537403558</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058089797137841</v>
+        <v>1.056617394061251</v>
       </c>
       <c r="J4">
-        <v>0.9913135793736605</v>
+        <v>0.9936476257474716</v>
       </c>
       <c r="K4">
-        <v>1.053683502278046</v>
+        <v>1.050820984981518</v>
       </c>
       <c r="L4">
-        <v>0.9911241141172723</v>
+        <v>0.9931304109169258</v>
       </c>
       <c r="M4">
-        <v>1.04458110997056</v>
+        <v>1.04350233590234</v>
       </c>
       <c r="N4">
-        <v>1.000619609043539</v>
+        <v>1.005103450902827</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043855341009225</v>
+        <v>1.043001567114082</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04902732665734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047011811379528</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025358137289536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9729598666166274</v>
+        <v>0.9752701748911209</v>
       </c>
       <c r="D5">
-        <v>1.044747356193627</v>
+        <v>1.041784609940618</v>
       </c>
       <c r="E5">
-        <v>0.9822853398096054</v>
+        <v>0.9842413961363312</v>
       </c>
       <c r="F5">
-        <v>1.035774808851529</v>
+        <v>1.034622995744704</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058285691223345</v>
+        <v>1.056777901555256</v>
       </c>
       <c r="J5">
-        <v>0.9926064702393808</v>
+        <v>0.9948550654192174</v>
       </c>
       <c r="K5">
-        <v>1.054122296315738</v>
+        <v>1.051190958839854</v>
       </c>
       <c r="L5">
-        <v>0.9923722720403685</v>
+        <v>0.9943043286009938</v>
       </c>
       <c r="M5">
-        <v>1.045245545557756</v>
+        <v>1.044106177487318</v>
       </c>
       <c r="N5">
-        <v>1.001073545032482</v>
+        <v>1.005444240512265</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044381194605028</v>
+        <v>1.043479465434251</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049344665031489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047281205785216</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02543052468222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.973262902126859</v>
+        <v>0.975559066389021</v>
       </c>
       <c r="D6">
-        <v>1.044858782464039</v>
+        <v>1.041885794624409</v>
       </c>
       <c r="E6">
-        <v>0.9825354368202143</v>
+        <v>0.9844794891857629</v>
       </c>
       <c r="F6">
-        <v>1.035921225763426</v>
+        <v>1.034760957659875</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058318957666313</v>
+        <v>1.05680588432038</v>
       </c>
       <c r="J6">
-        <v>0.9928217766188497</v>
+        <v>0.9950569461953676</v>
       </c>
       <c r="K6">
-        <v>1.05419698314795</v>
+        <v>1.051255370492455</v>
       </c>
       <c r="L6">
-        <v>0.9925806797590603</v>
+        <v>0.9945009976446199</v>
       </c>
       <c r="M6">
-        <v>1.045354413535487</v>
+        <v>1.044206624069984</v>
       </c>
       <c r="N6">
-        <v>1.001150184047838</v>
+        <v>1.005501883095766</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044467355844258</v>
+        <v>1.043558961838519</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049406109296445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047336259631077</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025442669033361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9711644832828477</v>
+        <v>0.9735891548202354</v>
       </c>
       <c r="D7">
-        <v>1.044102222712265</v>
+        <v>1.041213839024021</v>
       </c>
       <c r="E7">
-        <v>0.9808081457293449</v>
+        <v>0.9828624376421835</v>
       </c>
       <c r="F7">
-        <v>1.034892281934576</v>
+        <v>1.033812875253429</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058094373790885</v>
+        <v>1.056624834828219</v>
       </c>
       <c r="J7">
-        <v>0.9913293430109706</v>
+        <v>0.9936871131504164</v>
       </c>
       <c r="K7">
-        <v>1.053693155259217</v>
+        <v>1.050836205738417</v>
       </c>
       <c r="L7">
-        <v>0.9911407731595461</v>
+        <v>0.9931691226282456</v>
       </c>
       <c r="M7">
-        <v>1.044584198614374</v>
+        <v>1.043516772158953</v>
       </c>
       <c r="N7">
-        <v>1.000628050979274</v>
+        <v>1.005144283925165</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043857785452402</v>
+        <v>1.043012992403707</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049054015760287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04704444908345</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025359948228361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9621400707287868</v>
+        <v>0.9650762971481749</v>
       </c>
       <c r="D8">
-        <v>1.040854562273223</v>
+        <v>1.03832390289447</v>
       </c>
       <c r="E8">
-        <v>0.9733941927209412</v>
+        <v>0.9758831624871022</v>
       </c>
       <c r="F8">
-        <v>1.030489170191613</v>
+        <v>1.029742164036301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057093921040341</v>
+        <v>1.055808095920137</v>
       </c>
       <c r="J8">
-        <v>0.9849065650854726</v>
+        <v>0.9877484526123409</v>
       </c>
       <c r="K8">
-        <v>1.051508171396008</v>
+        <v>1.04900861826114</v>
       </c>
       <c r="L8">
-        <v>0.9849470388676973</v>
+        <v>0.9874000343995185</v>
       </c>
       <c r="M8">
-        <v>1.041271396014277</v>
+        <v>1.040533783679379</v>
       </c>
       <c r="N8">
-        <v>0.998375766121152</v>
+        <v>1.003526860719349</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041235931725257</v>
+        <v>1.040652161376955</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047513602462918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045757199009535</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024991952878587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9451598174423376</v>
+        <v>0.9490274088969248</v>
       </c>
       <c r="D9">
-        <v>1.034802098630089</v>
+        <v>1.032941073181696</v>
       </c>
       <c r="E9">
-        <v>0.9595103308192653</v>
+        <v>0.9627798235325471</v>
       </c>
       <c r="F9">
-        <v>1.022305742021127</v>
+        <v>1.022169860094412</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055095177199591</v>
+        <v>1.054151732718532</v>
       </c>
       <c r="J9">
-        <v>0.9728097023248721</v>
+        <v>0.9765180883589342</v>
       </c>
       <c r="K9">
-        <v>1.04735468843117</v>
+        <v>1.045521392617631</v>
       </c>
       <c r="L9">
-        <v>0.9732963601029504</v>
+        <v>0.9765070884358791</v>
       </c>
       <c r="M9">
-        <v>1.035047001090143</v>
+        <v>1.03491320304817</v>
       </c>
       <c r="N9">
-        <v>0.9941201007040037</v>
+        <v>1.000360754711481</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036309728609658</v>
+        <v>1.036203835802112</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044573735407567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043288127303793</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024261246505316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9330011677853541</v>
+        <v>0.9377082087977263</v>
       </c>
       <c r="D10">
-        <v>1.03055758947322</v>
+        <v>1.029212598722702</v>
       </c>
       <c r="E10">
-        <v>0.9496340909784943</v>
+        <v>0.9536127233423191</v>
       </c>
       <c r="F10">
-        <v>1.016585863962772</v>
+        <v>1.016963936825473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053611026718248</v>
+        <v>1.05293018131254</v>
       </c>
       <c r="J10">
-        <v>0.9641505212911111</v>
+        <v>0.9686315069802707</v>
       </c>
       <c r="K10">
-        <v>1.044396198145027</v>
+        <v>1.043073709183867</v>
       </c>
       <c r="L10">
-        <v>0.9649764274074288</v>
+        <v>0.9688732598200831</v>
       </c>
       <c r="M10">
-        <v>1.030661976514523</v>
+        <v>1.031033511431633</v>
       </c>
       <c r="N10">
-        <v>0.9910872616799778</v>
+        <v>0.9982677597029614</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032891036315187</v>
+        <v>1.033185065802036</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042498579960376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041575820728535</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023720634968928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.927584905460038</v>
+        <v>0.9329966196086201</v>
       </c>
       <c r="D11">
-        <v>1.028834307859225</v>
+        <v>1.027850219420135</v>
       </c>
       <c r="E11">
-        <v>0.9453278449636221</v>
+        <v>0.9499056926369088</v>
       </c>
       <c r="F11">
-        <v>1.014457712534882</v>
+        <v>1.015329449170353</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053015689270413</v>
+        <v>1.052517840868357</v>
       </c>
       <c r="J11">
-        <v>0.9603146062491613</v>
+        <v>0.9654492515139492</v>
       </c>
       <c r="K11">
-        <v>1.043232194702181</v>
+        <v>1.042265362919079</v>
       </c>
       <c r="L11">
-        <v>0.961360093854373</v>
+        <v>0.9658384626980709</v>
       </c>
       <c r="M11">
-        <v>1.02911203264144</v>
+        <v>1.029967951237407</v>
       </c>
       <c r="N11">
-        <v>0.9898912221979144</v>
+        <v>0.9977198830695346</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032103864423245</v>
+        <v>1.032780886076507</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041708133223687</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041040053000254</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023461634963632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9254481789851161</v>
+        <v>0.9312479853138709</v>
       </c>
       <c r="D12">
-        <v>1.028171820296937</v>
+        <v>1.027391446247696</v>
       </c>
       <c r="E12">
-        <v>0.943658343627544</v>
+        <v>0.9485620348160106</v>
       </c>
       <c r="F12">
-        <v>1.013708789689556</v>
+        <v>1.014888559120172</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052781613202674</v>
+        <v>1.052386912408559</v>
       </c>
       <c r="J12">
-        <v>0.9587808629295804</v>
+        <v>0.9642766464489605</v>
       </c>
       <c r="K12">
-        <v>1.042778488617975</v>
+        <v>1.042012034433518</v>
       </c>
       <c r="L12">
-        <v>0.9599508762353541</v>
+        <v>0.9647458259525574</v>
       </c>
       <c r="M12">
-        <v>1.028577980791927</v>
+        <v>1.029735970620922</v>
       </c>
       <c r="N12">
-        <v>0.9894759725316339</v>
+        <v>0.9975808472483747</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032010133235492</v>
+        <v>1.03292577553866</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041387353623672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040860947934643</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023323338299462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9257416371430995</v>
+        <v>0.9316577096508171</v>
       </c>
       <c r="D13">
-        <v>1.028300077903809</v>
+        <v>1.027609562891211</v>
       </c>
       <c r="E13">
-        <v>0.9439420933253803</v>
+        <v>0.9489345220125944</v>
       </c>
       <c r="F13">
-        <v>1.013994643073896</v>
+        <v>1.015342138855957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052824891454091</v>
+        <v>1.052475622308502</v>
       </c>
       <c r="J13">
-        <v>0.9589531986137706</v>
+        <v>0.9645606497586785</v>
       </c>
       <c r="K13">
-        <v>1.042862177210403</v>
+        <v>1.042183932777394</v>
       </c>
       <c r="L13">
-        <v>0.9601803287310798</v>
+        <v>0.9650625281880794</v>
       </c>
       <c r="M13">
-        <v>1.02881540024496</v>
+        <v>1.030138126834051</v>
       </c>
       <c r="N13">
-        <v>0.9896494203437225</v>
+        <v>0.9977074449957168</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032476257876171</v>
+        <v>1.033521894305912</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041444051861112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040979768392613</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023275809383718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9270386492066439</v>
+        <v>0.9329176107133997</v>
       </c>
       <c r="D14">
-        <v>1.028742220819363</v>
+        <v>1.028066392141897</v>
       </c>
       <c r="E14">
-        <v>0.9450172659175503</v>
+        <v>0.9499692324496726</v>
       </c>
       <c r="F14">
-        <v>1.014653759334648</v>
+        <v>1.016059023910952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052977490327669</v>
+        <v>1.052635594756685</v>
       </c>
       <c r="J14">
-        <v>0.9598371208316679</v>
+        <v>0.9654143579719892</v>
       </c>
       <c r="K14">
-        <v>1.043158006559094</v>
+        <v>1.04249404256548</v>
       </c>
       <c r="L14">
-        <v>0.9610747583686309</v>
+        <v>0.9659189352180386</v>
       </c>
       <c r="M14">
-        <v>1.029321132659998</v>
+        <v>1.030700895029475</v>
       </c>
       <c r="N14">
-        <v>0.9900343272181001</v>
+        <v>0.9979170019258342</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033050268495486</v>
+        <v>1.034140844026555</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041654621986418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041200568938093</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023281395064148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9278886072775983</v>
+        <v>0.9336984504000594</v>
       </c>
       <c r="D15">
-        <v>1.029032035754052</v>
+        <v>1.028334354570825</v>
       </c>
       <c r="E15">
-        <v>0.9457098423970967</v>
+        <v>0.9506000102167949</v>
       </c>
       <c r="F15">
-        <v>1.015055823860098</v>
+        <v>1.016444112381723</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053080097895441</v>
+        <v>1.052727112295276</v>
       </c>
       <c r="J15">
-        <v>0.9604311137087448</v>
+        <v>0.9659458013206527</v>
       </c>
       <c r="K15">
-        <v>1.043357454086277</v>
+        <v>1.042671929295309</v>
       </c>
       <c r="L15">
-        <v>0.9616556330231084</v>
+        <v>0.9664402946446804</v>
       </c>
       <c r="M15">
-        <v>1.029628904727392</v>
+        <v>1.030992196492744</v>
       </c>
       <c r="N15">
-        <v>0.9902593935392471</v>
+        <v>0.9980314287399021</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033331243325354</v>
+        <v>1.034408771858738</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041801456526589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041332725740821</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023306098013425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9330971314088625</v>
+        <v>0.9383187929514961</v>
       </c>
       <c r="D16">
-        <v>1.030851007326111</v>
+        <v>1.029879878187484</v>
       </c>
       <c r="E16">
-        <v>0.9499165975591598</v>
+        <v>0.9543001034822616</v>
       </c>
       <c r="F16">
-        <v>1.017508753578325</v>
+        <v>1.018565553734997</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053740952795131</v>
+        <v>1.053249331666433</v>
       </c>
       <c r="J16">
-        <v>0.9641555822029243</v>
+        <v>0.9691275624792627</v>
       </c>
       <c r="K16">
-        <v>1.044649607126085</v>
+        <v>1.043694658231461</v>
       </c>
       <c r="L16">
-        <v>0.9652135517449233</v>
+        <v>0.9695073230875303</v>
       </c>
       <c r="M16">
-        <v>1.031533146613161</v>
+        <v>1.032571783547498</v>
       </c>
       <c r="N16">
-        <v>0.9915397045121971</v>
+        <v>0.9986841781785788</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034797455866465</v>
+        <v>1.035618405467478</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042718176019115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042059252142337</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023563527755344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9363947852076363</v>
+        <v>0.9412211658878048</v>
       </c>
       <c r="D17">
-        <v>1.032011541565873</v>
+        <v>1.030827893244408</v>
       </c>
       <c r="E17">
-        <v>0.952569507271026</v>
+        <v>0.9566176984228046</v>
       </c>
       <c r="F17">
-        <v>1.019034906762033</v>
+        <v>1.019820152615374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054162559716426</v>
+        <v>1.053563132239882</v>
       </c>
       <c r="J17">
-        <v>0.9665374638600527</v>
+        <v>0.9711418367099373</v>
       </c>
       <c r="K17">
-        <v>1.045480644890544</v>
+        <v>1.0443161584034</v>
       </c>
       <c r="L17">
-        <v>0.9674636179766365</v>
+        <v>0.9714316784350384</v>
       </c>
       <c r="M17">
-        <v>1.032717218353972</v>
+        <v>1.033489363813509</v>
       </c>
       <c r="N17">
-        <v>0.9923160151474196</v>
+        <v>0.9991106089979619</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035603792039096</v>
+        <v>1.036214165514713</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043308300806454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042501475054971</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023756159186631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9383767645614906</v>
+        <v>0.942900405574346</v>
       </c>
       <c r="D18">
-        <v>1.032690058682975</v>
+        <v>1.031322866718118</v>
       </c>
       <c r="E18">
-        <v>0.9541409164217278</v>
+        <v>0.9579365506967207</v>
       </c>
       <c r="F18">
-        <v>1.019864728985868</v>
+        <v>1.02039133295138</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054408268844624</v>
+        <v>1.053715741304536</v>
       </c>
       <c r="J18">
-        <v>0.9679884763787379</v>
+        <v>0.9723087531024823</v>
       </c>
       <c r="K18">
-        <v>1.045967407760679</v>
+        <v>1.044621976595845</v>
       </c>
       <c r="L18">
-        <v>0.9688011494318423</v>
+        <v>0.9725231280683412</v>
       </c>
       <c r="M18">
-        <v>1.033349160166517</v>
+        <v>1.033867129652945</v>
       </c>
       <c r="N18">
-        <v>0.9927286557968812</v>
+        <v>0.9993320199881176</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035864618438246</v>
+        <v>1.036274154510419</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043640924284609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042705032343728</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023902334763762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.939062762841014</v>
+        <v>0.943396403667596</v>
       </c>
       <c r="D19">
-        <v>1.032862106648979</v>
+        <v>1.031369105305477</v>
       </c>
       <c r="E19">
-        <v>0.9546467547306344</v>
+        <v>0.9582879780061138</v>
       </c>
       <c r="F19">
-        <v>1.019946041097867</v>
+        <v>1.020267296030784</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054461832091399</v>
+        <v>1.053705524863552</v>
       </c>
       <c r="J19">
-        <v>0.9684939722906535</v>
+        <v>0.9726342972788402</v>
       </c>
       <c r="K19">
-        <v>1.046075086930451</v>
+        <v>1.044605716009946</v>
       </c>
       <c r="L19">
-        <v>0.9692280872539679</v>
+        <v>0.972799118314981</v>
       </c>
       <c r="M19">
-        <v>1.033366391802973</v>
+        <v>1.033682407104374</v>
       </c>
       <c r="N19">
-        <v>0.9927916350841505</v>
+        <v>0.9993367841837245</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035551198440647</v>
+        <v>1.035801140545621</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043723387091645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042700491344967</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023973588368627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9361727039393305</v>
+        <v>0.9405938631911348</v>
       </c>
       <c r="D20">
-        <v>1.031661500346509</v>
+        <v>1.030181786839526</v>
       </c>
       <c r="E20">
-        <v>0.9522100002096033</v>
+        <v>0.9559402632564243</v>
       </c>
       <c r="F20">
-        <v>1.018050015449757</v>
+        <v>1.018283457856582</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054003220682119</v>
+        <v>1.053253899821559</v>
       </c>
       <c r="J20">
-        <v>0.9664068996308164</v>
+        <v>0.9706237808367978</v>
       </c>
       <c r="K20">
-        <v>1.045169565786784</v>
+        <v>1.043713904803498</v>
       </c>
       <c r="L20">
-        <v>0.9671486656107686</v>
+        <v>0.9708047711067431</v>
       </c>
       <c r="M20">
-        <v>1.031782732594891</v>
+        <v>1.032012256881303</v>
       </c>
       <c r="N20">
-        <v>0.9918874997551289</v>
+        <v>0.9987262762641678</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03376738239968</v>
+        <v>1.033949028065379</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043087041125964</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042074230827851</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02385790672493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,105 +1617,123 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.926853559589668</v>
+        <v>0.9322715665527167</v>
       </c>
       <c r="D21">
-        <v>1.028402834250256</v>
+        <v>1.0273593420642</v>
       </c>
       <c r="E21">
-        <v>0.9446473747370462</v>
+        <v>0.9492535247012386</v>
       </c>
       <c r="F21">
-        <v>1.013618264492789</v>
+        <v>1.014346881093451</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052826776999468</v>
+        <v>1.052298917483363</v>
       </c>
       <c r="J21">
-        <v>0.9597631915172419</v>
+        <v>0.9649017568033136</v>
       </c>
       <c r="K21">
-        <v>1.042865371567898</v>
+        <v>1.041840282609308</v>
       </c>
       <c r="L21">
-        <v>0.9607591986201309</v>
+        <v>0.965264598519266</v>
       </c>
       <c r="M21">
-        <v>1.028346147597543</v>
+        <v>1.029061451483782</v>
       </c>
       <c r="N21">
-        <v>0.9895324025101266</v>
+        <v>0.9975630016156465</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031006401342575</v>
+        <v>1.031572523766092</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041461120899066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040753065865339</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023444183193302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9207808636540514</v>
+        <v>0.9268675533635851</v>
       </c>
       <c r="D22">
-        <v>1.026314554550711</v>
+        <v>1.02555943116074</v>
       </c>
       <c r="E22">
-        <v>0.9397373657811755</v>
+        <v>0.9449306826063016</v>
       </c>
       <c r="F22">
-        <v>1.010798071930553</v>
+        <v>1.011861585399581</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052057979904529</v>
+        <v>1.051676245831389</v>
       </c>
       <c r="J22">
-        <v>0.9554397348346938</v>
+        <v>0.9611905462524509</v>
       </c>
       <c r="K22">
-        <v>1.04138213859737</v>
+        <v>1.040641004462926</v>
       </c>
       <c r="L22">
-        <v>0.9566052473042673</v>
+        <v>0.9616781344136967</v>
       </c>
       <c r="M22">
-        <v>1.026158609584446</v>
+        <v>1.027201668224182</v>
       </c>
       <c r="N22">
-        <v>0.9880039169945597</v>
+        <v>0.9968021724414089</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029275086314381</v>
+        <v>1.030100609924085</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040399043179304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039890454343857</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023174235512052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9240272844154143</v>
+        <v>0.9297089970010762</v>
       </c>
       <c r="D23">
-        <v>1.027428865884529</v>
+        <v>1.026508300444452</v>
       </c>
       <c r="E23">
-        <v>0.942359255398969</v>
+        <v>0.9471944848530548</v>
       </c>
       <c r="F23">
-        <v>1.012312511561732</v>
+        <v>1.01317437095193</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052470079490845</v>
+        <v>1.052004548084071</v>
       </c>
       <c r="J23">
-        <v>0.9577517724336624</v>
+        <v>0.9631309300350119</v>
       </c>
       <c r="K23">
-        <v>1.042175156142846</v>
+        <v>1.041271208974588</v>
       </c>
       <c r="L23">
-        <v>0.9588244015474335</v>
+        <v>0.9635509045949806</v>
       </c>
       <c r="M23">
-        <v>1.027336682452151</v>
+        <v>1.028182407506352</v>
       </c>
       <c r="N23">
-        <v>0.9888178625067497</v>
+        <v>0.9971505547248607</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030207466196236</v>
+        <v>1.030876810289975</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040950178102094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040325531811417</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023319484397758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9363130174854255</v>
+        <v>0.9407095276887333</v>
       </c>
       <c r="D24">
-        <v>1.031692257822416</v>
+        <v>1.030192972013677</v>
       </c>
       <c r="E24">
-        <v>0.9523144914063495</v>
+        <v>0.956025162799225</v>
       </c>
       <c r="F24">
-        <v>1.018084533479728</v>
+        <v>1.018288223329734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054010697438388</v>
+        <v>1.053251452487339</v>
       </c>
       <c r="J24">
-        <v>0.9665039929731006</v>
+        <v>0.9706977338004071</v>
       </c>
       <c r="K24">
-        <v>1.045184777548163</v>
+        <v>1.04370982999382</v>
       </c>
       <c r="L24">
-        <v>0.9672341743686708</v>
+        <v>0.9708711933806834</v>
       </c>
       <c r="M24">
-        <v>1.031801336949567</v>
+        <v>1.032001612603723</v>
       </c>
       <c r="N24">
-        <v>0.9919037298736973</v>
+        <v>0.9987314151694425</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033740983347655</v>
+        <v>1.033899489586799</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043070653971061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042041530611796</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023865233742403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9496857178311946</v>
+        <v>0.9532722498379134</v>
       </c>
       <c r="D25">
-        <v>1.03640870737918</v>
+        <v>1.034369443123982</v>
       </c>
       <c r="E25">
-        <v>0.9632044423123365</v>
+        <v>0.9662357873926807</v>
       </c>
       <c r="F25">
-        <v>1.024461754113471</v>
+        <v>1.024158738383067</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055641203300683</v>
+        <v>1.054606804068233</v>
       </c>
       <c r="J25">
-        <v>0.976033675892109</v>
+        <v>0.9794814348084586</v>
       </c>
       <c r="K25">
-        <v>1.048466943941895</v>
+        <v>1.046456657751637</v>
       </c>
       <c r="L25">
-        <v>0.9764021462291372</v>
+        <v>0.9793818846704578</v>
       </c>
       <c r="M25">
-        <v>1.036691840258072</v>
+        <v>1.036393249365858</v>
       </c>
       <c r="N25">
-        <v>0.99526041712086</v>
+        <v>1.001166901493221</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037611514961954</v>
+        <v>1.037375199299543</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045388434383082</v>
+        <v>1.04398049897465</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02445785604963</v>
       </c>
     </row>
   </sheetData>
